--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjPGUigg59+KXgOxw7JaAfm4O/Mlg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgVK0ozTl2JgZh4sY1QNuhl1CN/Xg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -268,11 +268,11 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -798,7 +798,7 @@
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
@@ -864,7 +864,7 @@
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -906,8 +906,8 @@
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -942,7 +942,7 @@
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,6 +251,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -264,6 +267,9 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -277,9 +283,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -562,7 +565,7 @@
     <col customWidth="1" min="1" max="1" width="89.5"/>
     <col customWidth="1" min="2" max="2" width="25.25"/>
     <col customWidth="1" min="3" max="3" width="13.75"/>
-    <col customWidth="1" min="4" max="4" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="26.5"/>
     <col customWidth="1" min="5" max="26" width="7.75"/>
   </cols>
   <sheetData>
@@ -571,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -597,11 +600,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="55.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -627,46 +630,46 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="41.25" hidden="1" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2"/>
@@ -693,10 +696,10 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="41.25" hidden="1" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2"/>
@@ -723,10 +726,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="41.25" hidden="1" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
@@ -753,16 +756,16 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2"/>
@@ -789,16 +792,16 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
@@ -825,16 +828,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
@@ -861,16 +864,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2"/>
@@ -897,17 +900,17 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -933,16 +936,16 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2"/>
@@ -969,17 +972,17 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1005,16 +1008,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2"/>
@@ -1041,16 +1044,16 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2"/>
@@ -1077,16 +1080,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2"/>
@@ -1113,16 +1116,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2"/>
@@ -1149,16 +1152,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
@@ -1185,16 +1188,16 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2"/>
@@ -1221,16 +1224,16 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2"/>
@@ -1257,16 +1260,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2"/>
@@ -1293,16 +1296,16 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2"/>
@@ -1329,16 +1332,16 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
@@ -1369,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1397,7 +1400,7 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1425,7 +1428,7 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1453,7 +1456,7 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1481,7 +1484,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1509,7 +1512,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1537,7 +1540,7 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1565,7 +1568,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1593,7 +1596,7 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1621,7 +1624,7 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1649,7 +1652,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1677,7 +1680,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1705,7 +1708,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1733,7 +1736,7 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1761,7 +1764,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1789,7 +1792,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1817,7 +1820,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1845,7 +1848,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1873,7 +1876,7 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1901,7 +1904,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1929,7 +1932,7 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1957,7 +1960,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1985,7 +1988,7 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2013,7 +2016,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2041,7 +2044,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2069,7 +2072,7 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2097,7 +2100,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2125,7 +2128,7 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2153,7 +2156,7 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2181,7 +2184,7 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2209,7 +2212,7 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2237,7 +2240,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2265,7 +2268,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2293,7 +2296,7 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2321,7 +2324,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2349,7 +2352,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2377,7 +2380,7 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2405,7 +2408,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2433,7 +2436,7 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2461,7 +2464,7 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2489,7 +2492,7 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2517,7 +2520,7 @@
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2545,7 +2548,7 @@
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2573,7 +2576,7 @@
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2601,7 +2604,7 @@
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2629,7 +2632,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2657,7 +2660,7 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2685,7 +2688,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="3"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -2713,7 +2716,7 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2741,7 +2744,7 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2769,7 +2772,7 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2797,7 +2800,7 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="3"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2825,7 +2828,7 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2853,7 +2856,7 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2881,7 +2884,7 @@
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2909,7 +2912,7 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="3"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2937,7 +2940,7 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2965,7 +2968,7 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2993,7 +2996,7 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -3021,7 +3024,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -3049,7 +3052,7 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -3077,7 +3080,7 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -3105,7 +3108,7 @@
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="3"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3133,7 +3136,7 @@
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3161,7 +3164,7 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="3"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3189,7 +3192,7 @@
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3217,7 +3220,7 @@
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3245,7 +3248,7 @@
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="3"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -3273,7 +3276,7 @@
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3301,7 +3304,7 @@
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3329,7 +3332,7 @@
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3357,7 +3360,7 @@
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3385,7 +3388,7 @@
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3413,7 +3416,7 @@
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="3"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3441,7 +3444,7 @@
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -3469,7 +3472,7 @@
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="3"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -3497,7 +3500,7 @@
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="3"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -3525,7 +3528,7 @@
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="3"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3553,7 +3556,7 @@
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="3"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -3581,7 +3584,7 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="3"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -3609,7 +3612,7 @@
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -3637,7 +3640,7 @@
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -3665,7 +3668,7 @@
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -3693,7 +3696,7 @@
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="3"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -3721,7 +3724,7 @@
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="3"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -3749,7 +3752,7 @@
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="3"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -3777,7 +3780,7 @@
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -3805,7 +3808,7 @@
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="3"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -3833,7 +3836,7 @@
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="3"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -3861,7 +3864,7 @@
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="3"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -3889,7 +3892,7 @@
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3917,7 +3920,7 @@
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -3945,7 +3948,7 @@
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="3"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -3973,7 +3976,7 @@
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="3"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -4001,7 +4004,7 @@
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="3"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -4029,7 +4032,7 @@
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="3"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -4057,7 +4060,7 @@
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="3"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -4085,7 +4088,7 @@
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="3"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -4113,7 +4116,7 @@
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="C122" s="3"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -4141,7 +4144,7 @@
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="C123" s="3"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -4169,7 +4172,7 @@
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -4197,7 +4200,7 @@
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="C125" s="3"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -4225,7 +4228,7 @@
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="3"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -4253,7 +4256,7 @@
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -4281,7 +4284,7 @@
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="C128" s="3"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -4309,7 +4312,7 @@
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="3"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -4337,7 +4340,7 @@
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="3"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -4365,7 +4368,7 @@
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="C131" s="3"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -4393,7 +4396,7 @@
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4421,7 +4424,7 @@
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="3"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -4449,7 +4452,7 @@
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="3"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -4477,7 +4480,7 @@
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="3"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -4505,7 +4508,7 @@
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="3"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -4533,7 +4536,7 @@
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="3"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -4561,7 +4564,7 @@
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="3"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -4589,7 +4592,7 @@
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="3"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -4617,7 +4620,7 @@
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -4645,7 +4648,7 @@
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="3"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -4673,7 +4676,7 @@
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="3"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -4701,7 +4704,7 @@
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="3"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -4729,7 +4732,7 @@
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="3"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -4757,7 +4760,7 @@
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="C145" s="3"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -4785,7 +4788,7 @@
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -4813,7 +4816,7 @@
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="3"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -4841,7 +4844,7 @@
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -4869,7 +4872,7 @@
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="3"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -4897,7 +4900,7 @@
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="3"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -4925,7 +4928,7 @@
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="3"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -4953,7 +4956,7 @@
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="C152" s="3"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -4981,7 +4984,7 @@
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="C153" s="3"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -5009,7 +5012,7 @@
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="3"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -5037,7 +5040,7 @@
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="C155" s="3"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -5065,7 +5068,7 @@
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="C156" s="3"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -5093,7 +5096,7 @@
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="C157" s="3"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -5121,7 +5124,7 @@
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="3"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -5149,7 +5152,7 @@
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="C159" s="3"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -5177,7 +5180,7 @@
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="C160" s="3"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -5205,7 +5208,7 @@
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="3"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -5233,7 +5236,7 @@
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="3"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -5261,7 +5264,7 @@
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="C163" s="3"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -5289,7 +5292,7 @@
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="C164" s="3"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -5317,7 +5320,7 @@
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="C165" s="3"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -5345,7 +5348,7 @@
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="C166" s="3"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -5373,7 +5376,7 @@
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="3"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -5401,7 +5404,7 @@
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="3"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -5429,7 +5432,7 @@
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="3"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -5457,7 +5460,7 @@
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="3"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -5485,7 +5488,7 @@
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="C171" s="3"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -5513,7 +5516,7 @@
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="3"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -5541,7 +5544,7 @@
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="3"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -5569,7 +5572,7 @@
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="3"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -5597,7 +5600,7 @@
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="3"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -5625,7 +5628,7 @@
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="3"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -5653,7 +5656,7 @@
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="C177" s="3"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -5681,7 +5684,7 @@
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="3"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -5709,7 +5712,7 @@
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="3"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -5737,7 +5740,7 @@
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="C180" s="3"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -5765,7 +5768,7 @@
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="C181" s="3"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -5793,7 +5796,7 @@
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="3"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -5821,7 +5824,7 @@
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="3"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -5849,7 +5852,7 @@
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="C184" s="3"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -5877,7 +5880,7 @@
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="C185" s="3"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -5905,7 +5908,7 @@
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="C186" s="3"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -5933,7 +5936,7 @@
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="3"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -5961,7 +5964,7 @@
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="C188" s="3"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -5989,7 +5992,7 @@
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="3"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -6017,7 +6020,7 @@
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="3"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -6045,7 +6048,7 @@
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="C191" s="3"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -6073,7 +6076,7 @@
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="3"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -6101,7 +6104,7 @@
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="C193" s="3"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -6129,7 +6132,7 @@
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="C194" s="3"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -6157,7 +6160,7 @@
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="C195" s="3"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -6185,7 +6188,7 @@
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="C196" s="3"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -6213,7 +6216,7 @@
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="C197" s="3"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -6241,7 +6244,7 @@
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="3"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -6269,7 +6272,7 @@
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="C199" s="3"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -6297,7 +6300,7 @@
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="C200" s="3"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -6325,7 +6328,7 @@
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="C201" s="3"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -6353,7 +6356,7 @@
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="C202" s="3"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -6381,7 +6384,7 @@
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="C203" s="3"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -6409,7 +6412,7 @@
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -6437,7 +6440,7 @@
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="C205" s="3"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -6465,7 +6468,7 @@
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="C206" s="3"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -6493,7 +6496,7 @@
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="C207" s="3"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -6521,7 +6524,7 @@
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+      <c r="C208" s="3"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -6549,7 +6552,7 @@
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="C209" s="3"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -6577,7 +6580,7 @@
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
+      <c r="C210" s="3"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -6605,7 +6608,7 @@
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="C211" s="3"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -6633,7 +6636,7 @@
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="C212" s="3"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -6661,7 +6664,7 @@
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
+      <c r="C213" s="3"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -6689,7 +6692,7 @@
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
+      <c r="C214" s="3"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -6717,7 +6720,7 @@
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
+      <c r="C215" s="3"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -6745,7 +6748,7 @@
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
+      <c r="C216" s="3"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -6773,7 +6776,7 @@
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+      <c r="C217" s="3"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -6801,7 +6804,7 @@
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="C218" s="3"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -6829,7 +6832,7 @@
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+      <c r="C219" s="3"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -6857,7 +6860,7 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="C220" s="3"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -6885,7 +6888,7 @@
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="C221" s="3"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -6913,7 +6916,7 @@
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="C222" s="3"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -6941,7 +6944,7 @@
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
+      <c r="C223" s="3"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -6969,7 +6972,7 @@
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
+      <c r="C224" s="3"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -6997,7 +7000,7 @@
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
+      <c r="C225" s="3"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -7025,7 +7028,7 @@
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
+      <c r="C226" s="3"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -7053,7 +7056,7 @@
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
+      <c r="C227" s="3"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -7081,7 +7084,7 @@
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
+      <c r="C228" s="3"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -7109,7 +7112,7 @@
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
+      <c r="C229" s="3"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -7137,7 +7140,7 @@
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+      <c r="C230" s="3"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -7165,7 +7168,7 @@
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+      <c r="C231" s="3"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -7193,7 +7196,7 @@
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
+      <c r="C232" s="3"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -7221,7 +7224,7 @@
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
+      <c r="C233" s="3"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -7249,7 +7252,7 @@
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
+      <c r="C234" s="3"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -7277,7 +7280,7 @@
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
+      <c r="C235" s="3"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -7305,7 +7308,7 @@
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
+      <c r="C236" s="3"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -7333,7 +7336,7 @@
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
+      <c r="C237" s="3"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -7361,7 +7364,7 @@
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
+      <c r="C238" s="3"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -7389,7 +7392,7 @@
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+      <c r="C239" s="3"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -7417,7 +7420,7 @@
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="C240" s="3"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -7445,7 +7448,7 @@
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="C241" s="3"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -7473,7 +7476,7 @@
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+      <c r="C242" s="3"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -7501,7 +7504,7 @@
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
+      <c r="C243" s="3"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -7529,7 +7532,7 @@
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
+      <c r="C244" s="3"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -7557,7 +7560,7 @@
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+      <c r="C245" s="3"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -7585,7 +7588,7 @@
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+      <c r="C246" s="3"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -7613,7 +7616,7 @@
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
+      <c r="C247" s="3"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -7641,7 +7644,7 @@
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+      <c r="C248" s="3"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -7669,7 +7672,7 @@
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
+      <c r="C249" s="3"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -7697,7 +7700,7 @@
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
+      <c r="C250" s="3"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -7725,7 +7728,7 @@
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
+      <c r="C251" s="3"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -7753,7 +7756,7 @@
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
+      <c r="C252" s="3"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -7781,7 +7784,7 @@
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
+      <c r="C253" s="3"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -7809,7 +7812,7 @@
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
+      <c r="C254" s="3"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -7837,7 +7840,7 @@
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
+      <c r="C255" s="3"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -7865,7 +7868,7 @@
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+      <c r="C256" s="3"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -7893,7 +7896,7 @@
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+      <c r="C257" s="3"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -7921,7 +7924,7 @@
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="C258" s="3"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -7949,7 +7952,7 @@
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
+      <c r="C259" s="3"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -7977,7 +7980,7 @@
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
+      <c r="C260" s="3"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -8005,7 +8008,7 @@
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
+      <c r="C261" s="3"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -8033,7 +8036,7 @@
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
+      <c r="C262" s="3"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -8061,7 +8064,7 @@
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
+      <c r="C263" s="3"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -8089,7 +8092,7 @@
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
+      <c r="C264" s="3"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -8117,7 +8120,7 @@
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
+      <c r="C265" s="3"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -8145,7 +8148,7 @@
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
+      <c r="C266" s="3"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -8173,7 +8176,7 @@
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
+      <c r="C267" s="3"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -8201,7 +8204,7 @@
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
+      <c r="C268" s="3"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -8229,7 +8232,7 @@
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
+      <c r="C269" s="3"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -8257,7 +8260,7 @@
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
+      <c r="C270" s="3"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -8285,7 +8288,7 @@
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
+      <c r="C271" s="3"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
@@ -8313,7 +8316,7 @@
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
+      <c r="C272" s="3"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -8341,7 +8344,7 @@
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
+      <c r="C273" s="3"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -8369,7 +8372,7 @@
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
+      <c r="C274" s="3"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -8397,7 +8400,7 @@
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
+      <c r="C275" s="3"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -8425,7 +8428,7 @@
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
+      <c r="C276" s="3"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -8453,7 +8456,7 @@
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="C277" s="3"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8481,7 +8484,7 @@
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="C278" s="3"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8509,7 +8512,7 @@
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+      <c r="C279" s="3"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8537,7 +8540,7 @@
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
+      <c r="C280" s="3"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8565,7 +8568,7 @@
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
+      <c r="C281" s="3"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -8593,7 +8596,7 @@
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
+      <c r="C282" s="3"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -8621,7 +8624,7 @@
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
+      <c r="C283" s="3"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -8649,7 +8652,7 @@
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="C284" s="3"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -8677,7 +8680,7 @@
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="C285" s="3"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -8705,7 +8708,7 @@
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+      <c r="C286" s="3"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -8733,7 +8736,7 @@
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
+      <c r="C287" s="3"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -8761,7 +8764,7 @@
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
+      <c r="C288" s="3"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -8789,7 +8792,7 @@
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
+      <c r="C289" s="3"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -8817,7 +8820,7 @@
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
+      <c r="C290" s="3"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -8845,7 +8848,7 @@
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
+      <c r="C291" s="3"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
@@ -8873,7 +8876,7 @@
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
+      <c r="C292" s="3"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -8901,7 +8904,7 @@
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+      <c r="C293" s="3"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
@@ -8929,7 +8932,7 @@
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
+      <c r="C294" s="3"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
@@ -8957,7 +8960,7 @@
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
+      <c r="C295" s="3"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
@@ -8985,7 +8988,7 @@
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
+      <c r="C296" s="3"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
@@ -9013,7 +9016,7 @@
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
+      <c r="C297" s="3"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
@@ -9041,7 +9044,7 @@
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
+      <c r="C298" s="3"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
@@ -9069,7 +9072,7 @@
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
+      <c r="C299" s="3"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
@@ -9097,7 +9100,7 @@
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
+      <c r="C300" s="3"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
@@ -9125,7 +9128,7 @@
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
+      <c r="C301" s="3"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
@@ -9153,7 +9156,7 @@
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
+      <c r="C302" s="3"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
@@ -9181,7 +9184,7 @@
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
+      <c r="C303" s="3"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
@@ -9209,7 +9212,7 @@
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
+      <c r="C304" s="3"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
@@ -9237,7 +9240,7 @@
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
+      <c r="C305" s="3"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
@@ -9265,7 +9268,7 @@
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+      <c r="C306" s="3"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
@@ -9293,7 +9296,7 @@
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
+      <c r="C307" s="3"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
@@ -9321,7 +9324,7 @@
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
+      <c r="C308" s="3"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
@@ -9349,7 +9352,7 @@
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
+      <c r="C309" s="3"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
@@ -9377,7 +9380,7 @@
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
+      <c r="C310" s="3"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -9405,7 +9408,7 @@
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
+      <c r="C311" s="3"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
@@ -9433,7 +9436,7 @@
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
+      <c r="C312" s="3"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
@@ -9461,7 +9464,7 @@
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
+      <c r="C313" s="3"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
@@ -9489,7 +9492,7 @@
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
+      <c r="C314" s="3"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -9517,7 +9520,7 @@
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
+      <c r="C315" s="3"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -9545,7 +9548,7 @@
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
+      <c r="C316" s="3"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -9573,7 +9576,7 @@
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
+      <c r="C317" s="3"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -9601,7 +9604,7 @@
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
+      <c r="C318" s="3"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
@@ -9629,7 +9632,7 @@
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
+      <c r="C319" s="3"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
@@ -9657,7 +9660,7 @@
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
+      <c r="C320" s="3"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
@@ -9685,7 +9688,7 @@
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
+      <c r="C321" s="3"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
@@ -9713,7 +9716,7 @@
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
+      <c r="C322" s="3"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
@@ -9741,7 +9744,7 @@
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
+      <c r="C323" s="3"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
@@ -9769,7 +9772,7 @@
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
+      <c r="C324" s="3"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -9797,7 +9800,7 @@
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
+      <c r="C325" s="3"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
@@ -9825,7 +9828,7 @@
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
+      <c r="C326" s="3"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -9853,7 +9856,7 @@
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
+      <c r="C327" s="3"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
@@ -9881,7 +9884,7 @@
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
+      <c r="C328" s="3"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
@@ -9909,7 +9912,7 @@
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
+      <c r="C329" s="3"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
@@ -9937,7 +9940,7 @@
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
+      <c r="C330" s="3"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
@@ -9965,7 +9968,7 @@
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
+      <c r="C331" s="3"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
@@ -9993,7 +9996,7 @@
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
+      <c r="C332" s="3"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
@@ -10021,7 +10024,7 @@
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
+      <c r="C333" s="3"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
@@ -10049,7 +10052,7 @@
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
+      <c r="C334" s="3"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
@@ -10077,7 +10080,7 @@
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
+      <c r="C335" s="3"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
@@ -10105,7 +10108,7 @@
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
+      <c r="C336" s="3"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
@@ -10133,7 +10136,7 @@
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
+      <c r="C337" s="3"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
@@ -10161,7 +10164,7 @@
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
+      <c r="C338" s="3"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
@@ -10189,7 +10192,7 @@
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
+      <c r="C339" s="3"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
@@ -10217,7 +10220,7 @@
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
+      <c r="C340" s="3"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
@@ -10245,7 +10248,7 @@
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
+      <c r="C341" s="3"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
@@ -10273,7 +10276,7 @@
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
+      <c r="C342" s="3"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
@@ -10301,7 +10304,7 @@
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
+      <c r="C343" s="3"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
@@ -10329,7 +10332,7 @@
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
+      <c r="C344" s="3"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
@@ -10357,7 +10360,7 @@
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
+      <c r="C345" s="3"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
@@ -10385,7 +10388,7 @@
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
+      <c r="C346" s="3"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
@@ -10413,7 +10416,7 @@
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
+      <c r="C347" s="3"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
@@ -10441,7 +10444,7 @@
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
+      <c r="C348" s="3"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
@@ -10469,7 +10472,7 @@
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
+      <c r="C349" s="3"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
@@ -10497,7 +10500,7 @@
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
+      <c r="C350" s="3"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
@@ -10525,7 +10528,7 @@
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
+      <c r="C351" s="3"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
@@ -10553,7 +10556,7 @@
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
+      <c r="C352" s="3"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
@@ -10581,7 +10584,7 @@
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
+      <c r="C353" s="3"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
@@ -10609,7 +10612,7 @@
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
+      <c r="C354" s="3"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
@@ -10637,7 +10640,7 @@
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
+      <c r="C355" s="3"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
@@ -10665,7 +10668,7 @@
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
+      <c r="C356" s="3"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
@@ -10693,7 +10696,7 @@
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
+      <c r="C357" s="3"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
@@ -10721,7 +10724,7 @@
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
+      <c r="C358" s="3"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
@@ -10749,7 +10752,7 @@
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
+      <c r="C359" s="3"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
@@ -10777,7 +10780,7 @@
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
+      <c r="C360" s="3"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
@@ -10805,7 +10808,7 @@
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
+      <c r="C361" s="3"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
@@ -10833,7 +10836,7 @@
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
+      <c r="C362" s="3"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
@@ -10861,7 +10864,7 @@
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
+      <c r="C363" s="3"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
@@ -10889,7 +10892,7 @@
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
+      <c r="C364" s="3"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
@@ -10917,7 +10920,7 @@
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
+      <c r="C365" s="3"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
@@ -10945,7 +10948,7 @@
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
+      <c r="C366" s="3"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
@@ -10973,7 +10976,7 @@
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
+      <c r="C367" s="3"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
@@ -11001,7 +11004,7 @@
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
+      <c r="C368" s="3"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
@@ -11029,7 +11032,7 @@
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
+      <c r="C369" s="3"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
@@ -11057,7 +11060,7 @@
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
+      <c r="C370" s="3"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
@@ -11085,7 +11088,7 @@
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
+      <c r="C371" s="3"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
@@ -11113,7 +11116,7 @@
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
+      <c r="C372" s="3"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
@@ -11141,7 +11144,7 @@
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
+      <c r="C373" s="3"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
@@ -11169,7 +11172,7 @@
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
+      <c r="C374" s="3"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
@@ -11197,7 +11200,7 @@
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
+      <c r="C375" s="3"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
@@ -11225,7 +11228,7 @@
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
+      <c r="C376" s="3"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
@@ -11253,7 +11256,7 @@
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
+      <c r="C377" s="3"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
@@ -11281,7 +11284,7 @@
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
+      <c r="C378" s="3"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
@@ -11309,7 +11312,7 @@
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
+      <c r="C379" s="3"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
@@ -11337,7 +11340,7 @@
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
+      <c r="C380" s="3"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
@@ -11365,7 +11368,7 @@
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
+      <c r="C381" s="3"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
@@ -11393,7 +11396,7 @@
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
+      <c r="C382" s="3"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
@@ -11421,7 +11424,7 @@
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
+      <c r="C383" s="3"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
@@ -11449,7 +11452,7 @@
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
+      <c r="C384" s="3"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
@@ -11477,7 +11480,7 @@
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
+      <c r="C385" s="3"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
@@ -11505,7 +11508,7 @@
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
+      <c r="C386" s="3"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
@@ -11533,7 +11536,7 @@
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
+      <c r="C387" s="3"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
@@ -11561,7 +11564,7 @@
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
+      <c r="C388" s="3"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
@@ -11589,7 +11592,7 @@
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
+      <c r="C389" s="3"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
@@ -11617,7 +11620,7 @@
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
+      <c r="C390" s="3"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
@@ -11645,7 +11648,7 @@
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
+      <c r="C391" s="3"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
@@ -11673,7 +11676,7 @@
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
+      <c r="C392" s="3"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
@@ -11701,7 +11704,7 @@
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
+      <c r="C393" s="3"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
@@ -11729,7 +11732,7 @@
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
+      <c r="C394" s="3"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
@@ -11757,7 +11760,7 @@
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
+      <c r="C395" s="3"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
@@ -11785,7 +11788,7 @@
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
+      <c r="C396" s="3"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
@@ -11813,7 +11816,7 @@
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
+      <c r="C397" s="3"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
@@ -11841,7 +11844,7 @@
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
+      <c r="C398" s="3"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
@@ -11869,7 +11872,7 @@
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
+      <c r="C399" s="3"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
@@ -11897,7 +11900,7 @@
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
+      <c r="C400" s="3"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
@@ -11925,7 +11928,7 @@
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
+      <c r="C401" s="3"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
@@ -11953,7 +11956,7 @@
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
+      <c r="C402" s="3"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
@@ -11981,7 +11984,7 @@
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
+      <c r="C403" s="3"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
@@ -12009,7 +12012,7 @@
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
+      <c r="C404" s="3"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
@@ -12037,7 +12040,7 @@
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
+      <c r="C405" s="3"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
@@ -12065,7 +12068,7 @@
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
+      <c r="C406" s="3"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
@@ -12093,7 +12096,7 @@
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
+      <c r="C407" s="3"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
@@ -12121,7 +12124,7 @@
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
+      <c r="C408" s="3"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
@@ -12149,7 +12152,7 @@
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
+      <c r="C409" s="3"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
@@ -12177,7 +12180,7 @@
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
+      <c r="C410" s="3"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
@@ -12205,7 +12208,7 @@
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
+      <c r="C411" s="3"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
@@ -12233,7 +12236,7 @@
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
+      <c r="C412" s="3"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
@@ -12261,7 +12264,7 @@
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
+      <c r="C413" s="3"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
@@ -12289,7 +12292,7 @@
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
+      <c r="C414" s="3"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
@@ -12317,7 +12320,7 @@
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
+      <c r="C415" s="3"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
@@ -12345,7 +12348,7 @@
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
+      <c r="C416" s="3"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
@@ -12373,7 +12376,7 @@
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
+      <c r="C417" s="3"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
@@ -12401,7 +12404,7 @@
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
+      <c r="C418" s="3"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
@@ -12429,7 +12432,7 @@
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
+      <c r="C419" s="3"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
@@ -12457,7 +12460,7 @@
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
+      <c r="C420" s="3"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
@@ -12485,7 +12488,7 @@
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
+      <c r="C421" s="3"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
@@ -12513,7 +12516,7 @@
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
+      <c r="C422" s="3"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
@@ -12541,7 +12544,7 @@
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
+      <c r="C423" s="3"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
@@ -12569,7 +12572,7 @@
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
+      <c r="C424" s="3"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
@@ -12597,7 +12600,7 @@
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
+      <c r="C425" s="3"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
@@ -12625,7 +12628,7 @@
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
+      <c r="C426" s="3"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
@@ -12653,7 +12656,7 @@
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
+      <c r="C427" s="3"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
@@ -12681,7 +12684,7 @@
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
+      <c r="C428" s="3"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
@@ -12709,7 +12712,7 @@
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
+      <c r="C429" s="3"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
@@ -12737,7 +12740,7 @@
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
+      <c r="C430" s="3"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
@@ -12765,7 +12768,7 @@
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
+      <c r="C431" s="3"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
@@ -12793,7 +12796,7 @@
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
+      <c r="C432" s="3"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -12821,7 +12824,7 @@
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
+      <c r="C433" s="3"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
@@ -12849,7 +12852,7 @@
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
+      <c r="C434" s="3"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
@@ -12877,7 +12880,7 @@
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
+      <c r="C435" s="3"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
@@ -12905,7 +12908,7 @@
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
+      <c r="C436" s="3"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
@@ -12933,7 +12936,7 @@
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
+      <c r="C437" s="3"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
@@ -12961,7 +12964,7 @@
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
+      <c r="C438" s="3"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
@@ -12989,7 +12992,7 @@
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
+      <c r="C439" s="3"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
@@ -13017,7 +13020,7 @@
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
+      <c r="C440" s="3"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
@@ -13045,7 +13048,7 @@
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
+      <c r="C441" s="3"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
@@ -13073,7 +13076,7 @@
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
+      <c r="C442" s="3"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -13101,7 +13104,7 @@
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
+      <c r="C443" s="3"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -13129,7 +13132,7 @@
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
+      <c r="C444" s="3"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
@@ -13157,7 +13160,7 @@
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
+      <c r="C445" s="3"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
@@ -13185,7 +13188,7 @@
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
+      <c r="C446" s="3"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
@@ -13213,7 +13216,7 @@
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
+      <c r="C447" s="3"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
@@ -13241,7 +13244,7 @@
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
+      <c r="C448" s="3"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
@@ -13269,7 +13272,7 @@
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
+      <c r="C449" s="3"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -13297,7 +13300,7 @@
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
+      <c r="C450" s="3"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
@@ -13325,7 +13328,7 @@
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
+      <c r="C451" s="3"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
@@ -13353,7 +13356,7 @@
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
+      <c r="C452" s="3"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
@@ -13381,7 +13384,7 @@
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
+      <c r="C453" s="3"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -13409,7 +13412,7 @@
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
+      <c r="C454" s="3"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
@@ -13437,7 +13440,7 @@
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
+      <c r="C455" s="3"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
@@ -13465,7 +13468,7 @@
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
+      <c r="C456" s="3"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
@@ -13493,7 +13496,7 @@
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
+      <c r="C457" s="3"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
@@ -13521,7 +13524,7 @@
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
+      <c r="C458" s="3"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
@@ -13549,7 +13552,7 @@
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
+      <c r="C459" s="3"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
@@ -13577,7 +13580,7 @@
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
+      <c r="C460" s="3"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
@@ -13605,7 +13608,7 @@
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
+      <c r="C461" s="3"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
@@ -13633,7 +13636,7 @@
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
+      <c r="C462" s="3"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
@@ -13661,7 +13664,7 @@
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
+      <c r="C463" s="3"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
@@ -13689,7 +13692,7 @@
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
+      <c r="C464" s="3"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
@@ -13717,7 +13720,7 @@
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
+      <c r="C465" s="3"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
@@ -13745,7 +13748,7 @@
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
+      <c r="C466" s="3"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
@@ -13773,7 +13776,7 @@
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
+      <c r="C467" s="3"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
@@ -13801,7 +13804,7 @@
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
+      <c r="C468" s="3"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
@@ -13829,7 +13832,7 @@
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
+      <c r="C469" s="3"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
@@ -13857,7 +13860,7 @@
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
+      <c r="C470" s="3"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -13885,7 +13888,7 @@
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
+      <c r="C471" s="3"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
@@ -13913,7 +13916,7 @@
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
+      <c r="C472" s="3"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
@@ -13941,7 +13944,7 @@
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
+      <c r="C473" s="3"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -13969,7 +13972,7 @@
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
+      <c r="C474" s="3"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -13997,7 +14000,7 @@
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
+      <c r="C475" s="3"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
@@ -14025,7 +14028,7 @@
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
+      <c r="C476" s="3"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
@@ -14053,7 +14056,7 @@
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
+      <c r="C477" s="3"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
@@ -14081,7 +14084,7 @@
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
+      <c r="C478" s="3"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
@@ -14109,7 +14112,7 @@
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
+      <c r="C479" s="3"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
@@ -14137,7 +14140,7 @@
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
+      <c r="C480" s="3"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -14165,7 +14168,7 @@
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
+      <c r="C481" s="3"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -14193,7 +14196,7 @@
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
+      <c r="C482" s="3"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
@@ -14221,7 +14224,7 @@
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
+      <c r="C483" s="3"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -14249,7 +14252,7 @@
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
+      <c r="C484" s="3"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
@@ -14277,7 +14280,7 @@
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
+      <c r="C485" s="3"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
@@ -14305,7 +14308,7 @@
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
+      <c r="C486" s="3"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
@@ -14333,7 +14336,7 @@
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
+      <c r="C487" s="3"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
@@ -14361,7 +14364,7 @@
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
+      <c r="C488" s="3"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
@@ -14389,7 +14392,7 @@
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
+      <c r="C489" s="3"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
@@ -14417,7 +14420,7 @@
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
+      <c r="C490" s="3"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
@@ -14445,7 +14448,7 @@
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
+      <c r="C491" s="3"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
@@ -14473,7 +14476,7 @@
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
+      <c r="C492" s="3"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
@@ -14501,7 +14504,7 @@
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
+      <c r="C493" s="3"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
@@ -14529,7 +14532,7 @@
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
+      <c r="C494" s="3"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
@@ -14557,7 +14560,7 @@
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
+      <c r="C495" s="3"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
@@ -14585,7 +14588,7 @@
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
+      <c r="C496" s="3"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
@@ -14613,7 +14616,7 @@
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
+      <c r="C497" s="3"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
@@ -14641,7 +14644,7 @@
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
+      <c r="C498" s="3"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
@@ -14669,7 +14672,7 @@
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
+      <c r="C499" s="3"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
@@ -14697,7 +14700,7 @@
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
+      <c r="C500" s="3"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
@@ -14725,7 +14728,7 @@
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
+      <c r="C501" s="3"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
@@ -14753,7 +14756,7 @@
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
+      <c r="C502" s="3"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
@@ -14781,7 +14784,7 @@
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
+      <c r="C503" s="3"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
@@ -14809,7 +14812,7 @@
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
+      <c r="C504" s="3"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
@@ -14837,7 +14840,7 @@
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
+      <c r="C505" s="3"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
@@ -14865,7 +14868,7 @@
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
+      <c r="C506" s="3"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
@@ -14893,7 +14896,7 @@
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
+      <c r="C507" s="3"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
@@ -14921,7 +14924,7 @@
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
+      <c r="C508" s="3"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
@@ -14949,7 +14952,7 @@
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
+      <c r="C509" s="3"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
@@ -14977,7 +14980,7 @@
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
+      <c r="C510" s="3"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
@@ -15005,7 +15008,7 @@
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
+      <c r="C511" s="3"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
@@ -15033,7 +15036,7 @@
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
+      <c r="C512" s="3"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
@@ -15061,7 +15064,7 @@
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
+      <c r="C513" s="3"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
@@ -15089,7 +15092,7 @@
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
+      <c r="C514" s="3"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
@@ -15117,7 +15120,7 @@
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
+      <c r="C515" s="3"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
@@ -15145,7 +15148,7 @@
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
+      <c r="C516" s="3"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
@@ -15173,7 +15176,7 @@
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
+      <c r="C517" s="3"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
@@ -15201,7 +15204,7 @@
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
+      <c r="C518" s="3"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
@@ -15229,7 +15232,7 @@
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
+      <c r="C519" s="3"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
@@ -15257,7 +15260,7 @@
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
+      <c r="C520" s="3"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
@@ -15285,7 +15288,7 @@
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
+      <c r="C521" s="3"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
@@ -15313,7 +15316,7 @@
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
+      <c r="C522" s="3"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
@@ -15341,7 +15344,7 @@
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
+      <c r="C523" s="3"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
@@ -15369,7 +15372,7 @@
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
+      <c r="C524" s="3"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
@@ -15397,7 +15400,7 @@
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
+      <c r="C525" s="3"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
@@ -15425,7 +15428,7 @@
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
+      <c r="C526" s="3"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
@@ -15453,7 +15456,7 @@
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
-      <c r="C527" s="2"/>
+      <c r="C527" s="3"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
@@ -15481,7 +15484,7 @@
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
+      <c r="C528" s="3"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
@@ -15509,7 +15512,7 @@
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
+      <c r="C529" s="3"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
@@ -15537,7 +15540,7 @@
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
-      <c r="C530" s="2"/>
+      <c r="C530" s="3"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
@@ -15565,7 +15568,7 @@
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
+      <c r="C531" s="3"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
@@ -15593,7 +15596,7 @@
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
-      <c r="C532" s="2"/>
+      <c r="C532" s="3"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
@@ -15621,7 +15624,7 @@
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
-      <c r="C533" s="2"/>
+      <c r="C533" s="3"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
@@ -15649,7 +15652,7 @@
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
-      <c r="C534" s="2"/>
+      <c r="C534" s="3"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
@@ -15677,7 +15680,7 @@
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
-      <c r="C535" s="2"/>
+      <c r="C535" s="3"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
@@ -15705,7 +15708,7 @@
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
-      <c r="C536" s="2"/>
+      <c r="C536" s="3"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
@@ -15733,7 +15736,7 @@
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
-      <c r="C537" s="2"/>
+      <c r="C537" s="3"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
@@ -15761,7 +15764,7 @@
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
-      <c r="C538" s="2"/>
+      <c r="C538" s="3"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
@@ -15789,7 +15792,7 @@
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
+      <c r="C539" s="3"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
@@ -15817,7 +15820,7 @@
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
-      <c r="C540" s="2"/>
+      <c r="C540" s="3"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
@@ -15845,7 +15848,7 @@
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
-      <c r="C541" s="2"/>
+      <c r="C541" s="3"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
@@ -15873,7 +15876,7 @@
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
+      <c r="C542" s="3"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
@@ -15901,7 +15904,7 @@
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
-      <c r="C543" s="2"/>
+      <c r="C543" s="3"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
@@ -15929,7 +15932,7 @@
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
-      <c r="C544" s="2"/>
+      <c r="C544" s="3"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
@@ -15957,7 +15960,7 @@
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
-      <c r="C545" s="2"/>
+      <c r="C545" s="3"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
@@ -15985,7 +15988,7 @@
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
-      <c r="C546" s="2"/>
+      <c r="C546" s="3"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
@@ -16013,7 +16016,7 @@
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
-      <c r="C547" s="2"/>
+      <c r="C547" s="3"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
@@ -16041,7 +16044,7 @@
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
-      <c r="C548" s="2"/>
+      <c r="C548" s="3"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
@@ -16069,7 +16072,7 @@
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
-      <c r="C549" s="2"/>
+      <c r="C549" s="3"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
@@ -16097,7 +16100,7 @@
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
-      <c r="C550" s="2"/>
+      <c r="C550" s="3"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
@@ -16125,7 +16128,7 @@
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
+      <c r="C551" s="3"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
@@ -16153,7 +16156,7 @@
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
-      <c r="C552" s="2"/>
+      <c r="C552" s="3"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
@@ -16181,7 +16184,7 @@
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
-      <c r="C553" s="2"/>
+      <c r="C553" s="3"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
@@ -16209,7 +16212,7 @@
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
-      <c r="C554" s="2"/>
+      <c r="C554" s="3"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
@@ -16237,7 +16240,7 @@
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
+      <c r="C555" s="3"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
@@ -16265,7 +16268,7 @@
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
-      <c r="C556" s="2"/>
+      <c r="C556" s="3"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
@@ -16293,7 +16296,7 @@
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
+      <c r="C557" s="3"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
@@ -16321,7 +16324,7 @@
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
-      <c r="C558" s="2"/>
+      <c r="C558" s="3"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
@@ -16349,7 +16352,7 @@
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
-      <c r="C559" s="2"/>
+      <c r="C559" s="3"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
@@ -16377,7 +16380,7 @@
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
-      <c r="C560" s="2"/>
+      <c r="C560" s="3"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
@@ -16405,7 +16408,7 @@
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
-      <c r="C561" s="2"/>
+      <c r="C561" s="3"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
@@ -16433,7 +16436,7 @@
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
-      <c r="C562" s="2"/>
+      <c r="C562" s="3"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
@@ -16461,7 +16464,7 @@
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
+      <c r="C563" s="3"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
@@ -16489,7 +16492,7 @@
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
+      <c r="C564" s="3"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
@@ -16517,7 +16520,7 @@
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
-      <c r="C565" s="2"/>
+      <c r="C565" s="3"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
@@ -16545,7 +16548,7 @@
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
+      <c r="C566" s="3"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
@@ -16573,7 +16576,7 @@
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
-      <c r="C567" s="2"/>
+      <c r="C567" s="3"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
@@ -16601,7 +16604,7 @@
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
-      <c r="C568" s="2"/>
+      <c r="C568" s="3"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
@@ -16629,7 +16632,7 @@
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
+      <c r="C569" s="3"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
@@ -16657,7 +16660,7 @@
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
+      <c r="C570" s="3"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
@@ -16685,7 +16688,7 @@
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
-      <c r="C571" s="2"/>
+      <c r="C571" s="3"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
@@ -16713,7 +16716,7 @@
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
-      <c r="C572" s="2"/>
+      <c r="C572" s="3"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
@@ -16741,7 +16744,7 @@
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
-      <c r="C573" s="2"/>
+      <c r="C573" s="3"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
@@ -16769,7 +16772,7 @@
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
-      <c r="C574" s="2"/>
+      <c r="C574" s="3"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
@@ -16797,7 +16800,7 @@
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
-      <c r="C575" s="2"/>
+      <c r="C575" s="3"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
@@ -16825,7 +16828,7 @@
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
-      <c r="C576" s="2"/>
+      <c r="C576" s="3"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
@@ -16853,7 +16856,7 @@
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
-      <c r="C577" s="2"/>
+      <c r="C577" s="3"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
@@ -16881,7 +16884,7 @@
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
-      <c r="C578" s="2"/>
+      <c r="C578" s="3"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
@@ -16909,7 +16912,7 @@
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
-      <c r="C579" s="2"/>
+      <c r="C579" s="3"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
@@ -16937,7 +16940,7 @@
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
-      <c r="C580" s="2"/>
+      <c r="C580" s="3"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
@@ -16965,7 +16968,7 @@
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
-      <c r="C581" s="2"/>
+      <c r="C581" s="3"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
@@ -16993,7 +16996,7 @@
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
-      <c r="C582" s="2"/>
+      <c r="C582" s="3"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
@@ -17021,7 +17024,7 @@
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
-      <c r="C583" s="2"/>
+      <c r="C583" s="3"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
@@ -17049,7 +17052,7 @@
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
-      <c r="C584" s="2"/>
+      <c r="C584" s="3"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
@@ -17077,7 +17080,7 @@
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
-      <c r="C585" s="2"/>
+      <c r="C585" s="3"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
@@ -17105,7 +17108,7 @@
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
-      <c r="C586" s="2"/>
+      <c r="C586" s="3"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
@@ -17133,7 +17136,7 @@
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
+      <c r="C587" s="3"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
@@ -17161,7 +17164,7 @@
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
-      <c r="C588" s="2"/>
+      <c r="C588" s="3"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
@@ -17189,7 +17192,7 @@
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
-      <c r="C589" s="2"/>
+      <c r="C589" s="3"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
@@ -17217,7 +17220,7 @@
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
-      <c r="C590" s="2"/>
+      <c r="C590" s="3"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
@@ -17245,7 +17248,7 @@
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
-      <c r="C591" s="2"/>
+      <c r="C591" s="3"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
@@ -17273,7 +17276,7 @@
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
-      <c r="C592" s="2"/>
+      <c r="C592" s="3"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
@@ -17301,7 +17304,7 @@
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
+      <c r="C593" s="3"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
@@ -17329,7 +17332,7 @@
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
-      <c r="C594" s="2"/>
+      <c r="C594" s="3"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
@@ -17357,7 +17360,7 @@
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
+      <c r="C595" s="3"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
@@ -17385,7 +17388,7 @@
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
+      <c r="C596" s="3"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
@@ -17413,7 +17416,7 @@
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
+      <c r="C597" s="3"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -17441,7 +17444,7 @@
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
+      <c r="C598" s="3"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
@@ -17469,7 +17472,7 @@
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
+      <c r="C599" s="3"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
@@ -17497,7 +17500,7 @@
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
+      <c r="C600" s="3"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
@@ -17525,7 +17528,7 @@
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
+      <c r="C601" s="3"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
@@ -17553,7 +17556,7 @@
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
-      <c r="C602" s="2"/>
+      <c r="C602" s="3"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
@@ -17581,7 +17584,7 @@
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
-      <c r="C603" s="2"/>
+      <c r="C603" s="3"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
@@ -17609,7 +17612,7 @@
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
+      <c r="C604" s="3"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
@@ -17637,7 +17640,7 @@
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
+      <c r="C605" s="3"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
@@ -17665,7 +17668,7 @@
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
+      <c r="C606" s="3"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
@@ -17693,7 +17696,7 @@
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
+      <c r="C607" s="3"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
@@ -17721,7 +17724,7 @@
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
-      <c r="C608" s="2"/>
+      <c r="C608" s="3"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
@@ -17749,7 +17752,7 @@
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
-      <c r="C609" s="2"/>
+      <c r="C609" s="3"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
@@ -17777,7 +17780,7 @@
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
-      <c r="C610" s="2"/>
+      <c r="C610" s="3"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
@@ -17805,7 +17808,7 @@
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
-      <c r="C611" s="2"/>
+      <c r="C611" s="3"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
@@ -17833,7 +17836,7 @@
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
-      <c r="C612" s="2"/>
+      <c r="C612" s="3"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
@@ -17861,7 +17864,7 @@
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
-      <c r="C613" s="2"/>
+      <c r="C613" s="3"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
@@ -17889,7 +17892,7 @@
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
-      <c r="C614" s="2"/>
+      <c r="C614" s="3"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
@@ -17917,7 +17920,7 @@
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
+      <c r="C615" s="3"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
@@ -17945,7 +17948,7 @@
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
-      <c r="C616" s="2"/>
+      <c r="C616" s="3"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -17973,7 +17976,7 @@
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
-      <c r="C617" s="2"/>
+      <c r="C617" s="3"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
@@ -18001,7 +18004,7 @@
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
-      <c r="C618" s="2"/>
+      <c r="C618" s="3"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
@@ -18029,7 +18032,7 @@
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
-      <c r="C619" s="2"/>
+      <c r="C619" s="3"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
@@ -18057,7 +18060,7 @@
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
-      <c r="C620" s="2"/>
+      <c r="C620" s="3"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
@@ -18085,7 +18088,7 @@
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
+      <c r="C621" s="3"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
@@ -18113,7 +18116,7 @@
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
-      <c r="C622" s="2"/>
+      <c r="C622" s="3"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
@@ -18141,7 +18144,7 @@
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
-      <c r="C623" s="2"/>
+      <c r="C623" s="3"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
@@ -18169,7 +18172,7 @@
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
-      <c r="C624" s="2"/>
+      <c r="C624" s="3"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
@@ -18197,7 +18200,7 @@
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
-      <c r="C625" s="2"/>
+      <c r="C625" s="3"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
@@ -18225,7 +18228,7 @@
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
-      <c r="C626" s="2"/>
+      <c r="C626" s="3"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
@@ -18253,7 +18256,7 @@
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
-      <c r="C627" s="2"/>
+      <c r="C627" s="3"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
@@ -18281,7 +18284,7 @@
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
-      <c r="C628" s="2"/>
+      <c r="C628" s="3"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
@@ -18309,7 +18312,7 @@
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
+      <c r="C629" s="3"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
@@ -18337,7 +18340,7 @@
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
+      <c r="C630" s="3"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
@@ -18365,7 +18368,7 @@
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
-      <c r="C631" s="2"/>
+      <c r="C631" s="3"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
@@ -18393,7 +18396,7 @@
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
+      <c r="C632" s="3"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
@@ -18421,7 +18424,7 @@
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
+      <c r="C633" s="3"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
@@ -18449,7 +18452,7 @@
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
-      <c r="C634" s="2"/>
+      <c r="C634" s="3"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
@@ -18477,7 +18480,7 @@
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
-      <c r="C635" s="2"/>
+      <c r="C635" s="3"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -18505,7 +18508,7 @@
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
-      <c r="C636" s="2"/>
+      <c r="C636" s="3"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
@@ -18533,7 +18536,7 @@
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
-      <c r="C637" s="2"/>
+      <c r="C637" s="3"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
@@ -18561,7 +18564,7 @@
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
-      <c r="C638" s="2"/>
+      <c r="C638" s="3"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
@@ -18589,7 +18592,7 @@
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
-      <c r="C639" s="2"/>
+      <c r="C639" s="3"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
@@ -18617,7 +18620,7 @@
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
-      <c r="C640" s="2"/>
+      <c r="C640" s="3"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
@@ -18645,7 +18648,7 @@
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
-      <c r="C641" s="2"/>
+      <c r="C641" s="3"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
@@ -18673,7 +18676,7 @@
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
-      <c r="C642" s="2"/>
+      <c r="C642" s="3"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
@@ -18701,7 +18704,7 @@
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
-      <c r="C643" s="2"/>
+      <c r="C643" s="3"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
@@ -18729,7 +18732,7 @@
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
-      <c r="C644" s="2"/>
+      <c r="C644" s="3"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
@@ -18757,7 +18760,7 @@
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
+      <c r="C645" s="3"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
@@ -18785,7 +18788,7 @@
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
-      <c r="C646" s="2"/>
+      <c r="C646" s="3"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
@@ -18813,7 +18816,7 @@
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
-      <c r="C647" s="2"/>
+      <c r="C647" s="3"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
@@ -18841,7 +18844,7 @@
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
-      <c r="C648" s="2"/>
+      <c r="C648" s="3"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
@@ -18869,7 +18872,7 @@
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
-      <c r="C649" s="2"/>
+      <c r="C649" s="3"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
@@ -18897,7 +18900,7 @@
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
-      <c r="C650" s="2"/>
+      <c r="C650" s="3"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
@@ -18925,7 +18928,7 @@
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
-      <c r="C651" s="2"/>
+      <c r="C651" s="3"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
@@ -18953,7 +18956,7 @@
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
-      <c r="C652" s="2"/>
+      <c r="C652" s="3"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
@@ -18981,7 +18984,7 @@
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
-      <c r="C653" s="2"/>
+      <c r="C653" s="3"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
@@ -19009,7 +19012,7 @@
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
-      <c r="C654" s="2"/>
+      <c r="C654" s="3"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
@@ -19037,7 +19040,7 @@
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
-      <c r="C655" s="2"/>
+      <c r="C655" s="3"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
@@ -19065,7 +19068,7 @@
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
-      <c r="C656" s="2"/>
+      <c r="C656" s="3"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
@@ -19093,7 +19096,7 @@
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
-      <c r="C657" s="2"/>
+      <c r="C657" s="3"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
@@ -19121,7 +19124,7 @@
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
-      <c r="C658" s="2"/>
+      <c r="C658" s="3"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
@@ -19149,7 +19152,7 @@
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
-      <c r="C659" s="2"/>
+      <c r="C659" s="3"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
@@ -19177,7 +19180,7 @@
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
-      <c r="C660" s="2"/>
+      <c r="C660" s="3"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
@@ -19205,7 +19208,7 @@
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
-      <c r="C661" s="2"/>
+      <c r="C661" s="3"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
@@ -19233,7 +19236,7 @@
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
-      <c r="C662" s="2"/>
+      <c r="C662" s="3"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
@@ -19261,7 +19264,7 @@
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
-      <c r="C663" s="2"/>
+      <c r="C663" s="3"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
@@ -19289,7 +19292,7 @@
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
-      <c r="C664" s="2"/>
+      <c r="C664" s="3"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
@@ -19317,7 +19320,7 @@
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
-      <c r="C665" s="2"/>
+      <c r="C665" s="3"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
@@ -19345,7 +19348,7 @@
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
-      <c r="C666" s="2"/>
+      <c r="C666" s="3"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
@@ -19373,7 +19376,7 @@
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
-      <c r="C667" s="2"/>
+      <c r="C667" s="3"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
@@ -19401,7 +19404,7 @@
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
-      <c r="C668" s="2"/>
+      <c r="C668" s="3"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
@@ -19429,7 +19432,7 @@
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
-      <c r="C669" s="2"/>
+      <c r="C669" s="3"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
@@ -19457,7 +19460,7 @@
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
-      <c r="C670" s="2"/>
+      <c r="C670" s="3"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
@@ -19485,7 +19488,7 @@
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
-      <c r="C671" s="2"/>
+      <c r="C671" s="3"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
@@ -19513,7 +19516,7 @@
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
-      <c r="C672" s="2"/>
+      <c r="C672" s="3"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
@@ -19541,7 +19544,7 @@
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
-      <c r="C673" s="2"/>
+      <c r="C673" s="3"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
@@ -19569,7 +19572,7 @@
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
-      <c r="C674" s="2"/>
+      <c r="C674" s="3"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
@@ -19597,7 +19600,7 @@
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
-      <c r="C675" s="2"/>
+      <c r="C675" s="3"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
@@ -19625,7 +19628,7 @@
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
-      <c r="C676" s="2"/>
+      <c r="C676" s="3"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
@@ -19653,7 +19656,7 @@
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
-      <c r="C677" s="2"/>
+      <c r="C677" s="3"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
@@ -19681,7 +19684,7 @@
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
-      <c r="C678" s="2"/>
+      <c r="C678" s="3"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
@@ -19709,7 +19712,7 @@
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
-      <c r="C679" s="2"/>
+      <c r="C679" s="3"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
@@ -19737,7 +19740,7 @@
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
-      <c r="C680" s="2"/>
+      <c r="C680" s="3"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
@@ -19765,7 +19768,7 @@
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
-      <c r="C681" s="2"/>
+      <c r="C681" s="3"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
@@ -19793,7 +19796,7 @@
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
-      <c r="C682" s="2"/>
+      <c r="C682" s="3"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
@@ -19821,7 +19824,7 @@
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
-      <c r="C683" s="2"/>
+      <c r="C683" s="3"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
@@ -19849,7 +19852,7 @@
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
-      <c r="C684" s="2"/>
+      <c r="C684" s="3"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
@@ -19877,7 +19880,7 @@
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
-      <c r="C685" s="2"/>
+      <c r="C685" s="3"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
@@ -19905,7 +19908,7 @@
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
-      <c r="C686" s="2"/>
+      <c r="C686" s="3"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
@@ -19933,7 +19936,7 @@
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
-      <c r="C687" s="2"/>
+      <c r="C687" s="3"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
@@ -19961,7 +19964,7 @@
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
-      <c r="C688" s="2"/>
+      <c r="C688" s="3"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
@@ -19989,7 +19992,7 @@
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
-      <c r="C689" s="2"/>
+      <c r="C689" s="3"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
@@ -20017,7 +20020,7 @@
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
-      <c r="C690" s="2"/>
+      <c r="C690" s="3"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
@@ -20045,7 +20048,7 @@
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
-      <c r="C691" s="2"/>
+      <c r="C691" s="3"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
@@ -20073,7 +20076,7 @@
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
-      <c r="C692" s="2"/>
+      <c r="C692" s="3"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -20101,7 +20104,7 @@
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
-      <c r="C693" s="2"/>
+      <c r="C693" s="3"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
@@ -20129,7 +20132,7 @@
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
-      <c r="C694" s="2"/>
+      <c r="C694" s="3"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
@@ -20157,7 +20160,7 @@
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
-      <c r="C695" s="2"/>
+      <c r="C695" s="3"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
@@ -20185,7 +20188,7 @@
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
-      <c r="C696" s="2"/>
+      <c r="C696" s="3"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
@@ -20213,7 +20216,7 @@
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
-      <c r="C697" s="2"/>
+      <c r="C697" s="3"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
@@ -20241,7 +20244,7 @@
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
-      <c r="C698" s="2"/>
+      <c r="C698" s="3"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
@@ -20269,7 +20272,7 @@
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
-      <c r="C699" s="2"/>
+      <c r="C699" s="3"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
@@ -20297,7 +20300,7 @@
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
-      <c r="C700" s="2"/>
+      <c r="C700" s="3"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
@@ -20325,7 +20328,7 @@
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
-      <c r="C701" s="2"/>
+      <c r="C701" s="3"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
@@ -20353,7 +20356,7 @@
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
-      <c r="C702" s="2"/>
+      <c r="C702" s="3"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
@@ -20381,7 +20384,7 @@
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
-      <c r="C703" s="2"/>
+      <c r="C703" s="3"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
@@ -20409,7 +20412,7 @@
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
-      <c r="C704" s="2"/>
+      <c r="C704" s="3"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
@@ -20437,7 +20440,7 @@
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
-      <c r="C705" s="2"/>
+      <c r="C705" s="3"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
@@ -20465,7 +20468,7 @@
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
-      <c r="C706" s="2"/>
+      <c r="C706" s="3"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
@@ -20493,7 +20496,7 @@
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
-      <c r="C707" s="2"/>
+      <c r="C707" s="3"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
@@ -20521,7 +20524,7 @@
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
-      <c r="C708" s="2"/>
+      <c r="C708" s="3"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
@@ -20549,7 +20552,7 @@
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
-      <c r="C709" s="2"/>
+      <c r="C709" s="3"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
@@ -20577,7 +20580,7 @@
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
-      <c r="C710" s="2"/>
+      <c r="C710" s="3"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
@@ -20605,7 +20608,7 @@
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
-      <c r="C711" s="2"/>
+      <c r="C711" s="3"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
@@ -20633,7 +20636,7 @@
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
-      <c r="C712" s="2"/>
+      <c r="C712" s="3"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
@@ -20661,7 +20664,7 @@
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
-      <c r="C713" s="2"/>
+      <c r="C713" s="3"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
@@ -20689,7 +20692,7 @@
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
-      <c r="C714" s="2"/>
+      <c r="C714" s="3"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
@@ -20717,7 +20720,7 @@
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
-      <c r="C715" s="2"/>
+      <c r="C715" s="3"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
@@ -20745,7 +20748,7 @@
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
-      <c r="C716" s="2"/>
+      <c r="C716" s="3"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
@@ -20773,7 +20776,7 @@
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
-      <c r="C717" s="2"/>
+      <c r="C717" s="3"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
@@ -20801,7 +20804,7 @@
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
-      <c r="C718" s="2"/>
+      <c r="C718" s="3"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
@@ -20829,7 +20832,7 @@
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
-      <c r="C719" s="2"/>
+      <c r="C719" s="3"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
@@ -20857,7 +20860,7 @@
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
-      <c r="C720" s="2"/>
+      <c r="C720" s="3"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
@@ -20885,7 +20888,7 @@
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
-      <c r="C721" s="2"/>
+      <c r="C721" s="3"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
@@ -20913,7 +20916,7 @@
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
-      <c r="C722" s="2"/>
+      <c r="C722" s="3"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
@@ -20941,7 +20944,7 @@
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
-      <c r="C723" s="2"/>
+      <c r="C723" s="3"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
@@ -20969,7 +20972,7 @@
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
-      <c r="C724" s="2"/>
+      <c r="C724" s="3"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
@@ -20997,7 +21000,7 @@
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
-      <c r="C725" s="2"/>
+      <c r="C725" s="3"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
@@ -21025,7 +21028,7 @@
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
-      <c r="C726" s="2"/>
+      <c r="C726" s="3"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
@@ -21053,7 +21056,7 @@
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
-      <c r="C727" s="2"/>
+      <c r="C727" s="3"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
@@ -21081,7 +21084,7 @@
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
-      <c r="C728" s="2"/>
+      <c r="C728" s="3"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
@@ -21109,7 +21112,7 @@
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
-      <c r="C729" s="2"/>
+      <c r="C729" s="3"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
@@ -21137,7 +21140,7 @@
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
-      <c r="C730" s="2"/>
+      <c r="C730" s="3"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
@@ -21165,7 +21168,7 @@
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
-      <c r="C731" s="2"/>
+      <c r="C731" s="3"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
@@ -21193,7 +21196,7 @@
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
-      <c r="C732" s="2"/>
+      <c r="C732" s="3"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
@@ -21221,7 +21224,7 @@
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
-      <c r="C733" s="2"/>
+      <c r="C733" s="3"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
@@ -21249,7 +21252,7 @@
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
-      <c r="C734" s="2"/>
+      <c r="C734" s="3"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
@@ -21277,7 +21280,7 @@
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
-      <c r="C735" s="2"/>
+      <c r="C735" s="3"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
@@ -21305,7 +21308,7 @@
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
-      <c r="C736" s="2"/>
+      <c r="C736" s="3"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -21333,7 +21336,7 @@
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
-      <c r="C737" s="2"/>
+      <c r="C737" s="3"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
@@ -21361,7 +21364,7 @@
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
-      <c r="C738" s="2"/>
+      <c r="C738" s="3"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
@@ -21389,7 +21392,7 @@
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
-      <c r="C739" s="2"/>
+      <c r="C739" s="3"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
@@ -21417,7 +21420,7 @@
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
-      <c r="C740" s="2"/>
+      <c r="C740" s="3"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
@@ -21445,7 +21448,7 @@
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
-      <c r="C741" s="2"/>
+      <c r="C741" s="3"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
@@ -21473,7 +21476,7 @@
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
-      <c r="C742" s="2"/>
+      <c r="C742" s="3"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
@@ -21501,7 +21504,7 @@
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
-      <c r="C743" s="2"/>
+      <c r="C743" s="3"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
@@ -21529,7 +21532,7 @@
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
-      <c r="C744" s="2"/>
+      <c r="C744" s="3"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
@@ -21557,7 +21560,7 @@
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
-      <c r="C745" s="2"/>
+      <c r="C745" s="3"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
@@ -21585,7 +21588,7 @@
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
-      <c r="C746" s="2"/>
+      <c r="C746" s="3"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
@@ -21613,7 +21616,7 @@
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
-      <c r="C747" s="2"/>
+      <c r="C747" s="3"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
@@ -21641,7 +21644,7 @@
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
-      <c r="C748" s="2"/>
+      <c r="C748" s="3"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
@@ -21669,7 +21672,7 @@
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
-      <c r="C749" s="2"/>
+      <c r="C749" s="3"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
@@ -21697,7 +21700,7 @@
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
-      <c r="C750" s="2"/>
+      <c r="C750" s="3"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
@@ -21725,7 +21728,7 @@
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
-      <c r="C751" s="2"/>
+      <c r="C751" s="3"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
@@ -21753,7 +21756,7 @@
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
-      <c r="C752" s="2"/>
+      <c r="C752" s="3"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
@@ -21781,7 +21784,7 @@
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
-      <c r="C753" s="2"/>
+      <c r="C753" s="3"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
@@ -21809,7 +21812,7 @@
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
-      <c r="C754" s="2"/>
+      <c r="C754" s="3"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
@@ -21837,7 +21840,7 @@
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
-      <c r="C755" s="2"/>
+      <c r="C755" s="3"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
@@ -21865,7 +21868,7 @@
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
-      <c r="C756" s="2"/>
+      <c r="C756" s="3"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -21893,7 +21896,7 @@
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
-      <c r="C757" s="2"/>
+      <c r="C757" s="3"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
@@ -21921,7 +21924,7 @@
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
-      <c r="C758" s="2"/>
+      <c r="C758" s="3"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
@@ -21949,7 +21952,7 @@
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
-      <c r="C759" s="2"/>
+      <c r="C759" s="3"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
@@ -21977,7 +21980,7 @@
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
-      <c r="C760" s="2"/>
+      <c r="C760" s="3"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
@@ -22005,7 +22008,7 @@
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
-      <c r="C761" s="2"/>
+      <c r="C761" s="3"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
@@ -22033,7 +22036,7 @@
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
-      <c r="C762" s="2"/>
+      <c r="C762" s="3"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
@@ -22061,7 +22064,7 @@
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
-      <c r="C763" s="2"/>
+      <c r="C763" s="3"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
@@ -22089,7 +22092,7 @@
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
-      <c r="C764" s="2"/>
+      <c r="C764" s="3"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
@@ -22117,7 +22120,7 @@
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
-      <c r="C765" s="2"/>
+      <c r="C765" s="3"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
@@ -22145,7 +22148,7 @@
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
-      <c r="C766" s="2"/>
+      <c r="C766" s="3"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
@@ -22173,7 +22176,7 @@
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
-      <c r="C767" s="2"/>
+      <c r="C767" s="3"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
@@ -22201,7 +22204,7 @@
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
-      <c r="C768" s="2"/>
+      <c r="C768" s="3"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
@@ -22229,7 +22232,7 @@
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
-      <c r="C769" s="2"/>
+      <c r="C769" s="3"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
@@ -22257,7 +22260,7 @@
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
-      <c r="C770" s="2"/>
+      <c r="C770" s="3"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
@@ -22285,7 +22288,7 @@
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
-      <c r="C771" s="2"/>
+      <c r="C771" s="3"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
@@ -22313,7 +22316,7 @@
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
-      <c r="C772" s="2"/>
+      <c r="C772" s="3"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
@@ -22341,7 +22344,7 @@
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
-      <c r="C773" s="2"/>
+      <c r="C773" s="3"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
@@ -22369,7 +22372,7 @@
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
-      <c r="C774" s="2"/>
+      <c r="C774" s="3"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
@@ -22397,7 +22400,7 @@
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
-      <c r="C775" s="2"/>
+      <c r="C775" s="3"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
@@ -22425,7 +22428,7 @@
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
-      <c r="C776" s="2"/>
+      <c r="C776" s="3"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
@@ -22453,7 +22456,7 @@
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
-      <c r="C777" s="2"/>
+      <c r="C777" s="3"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
@@ -22481,7 +22484,7 @@
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
-      <c r="C778" s="2"/>
+      <c r="C778" s="3"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
@@ -22509,7 +22512,7 @@
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
-      <c r="C779" s="2"/>
+      <c r="C779" s="3"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -22537,7 +22540,7 @@
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
-      <c r="C780" s="2"/>
+      <c r="C780" s="3"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
@@ -22565,7 +22568,7 @@
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
-      <c r="C781" s="2"/>
+      <c r="C781" s="3"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
@@ -22593,7 +22596,7 @@
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
-      <c r="C782" s="2"/>
+      <c r="C782" s="3"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
@@ -22621,7 +22624,7 @@
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
-      <c r="C783" s="2"/>
+      <c r="C783" s="3"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
@@ -22649,7 +22652,7 @@
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
-      <c r="C784" s="2"/>
+      <c r="C784" s="3"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
@@ -22677,7 +22680,7 @@
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
-      <c r="C785" s="2"/>
+      <c r="C785" s="3"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
@@ -22705,7 +22708,7 @@
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
-      <c r="C786" s="2"/>
+      <c r="C786" s="3"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
@@ -22733,7 +22736,7 @@
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
-      <c r="C787" s="2"/>
+      <c r="C787" s="3"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
@@ -22761,7 +22764,7 @@
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
-      <c r="C788" s="2"/>
+      <c r="C788" s="3"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
@@ -22789,7 +22792,7 @@
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
-      <c r="C789" s="2"/>
+      <c r="C789" s="3"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
@@ -22817,7 +22820,7 @@
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
-      <c r="C790" s="2"/>
+      <c r="C790" s="3"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
@@ -22845,7 +22848,7 @@
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
-      <c r="C791" s="2"/>
+      <c r="C791" s="3"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
@@ -22873,7 +22876,7 @@
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
-      <c r="C792" s="2"/>
+      <c r="C792" s="3"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
@@ -22901,7 +22904,7 @@
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
-      <c r="C793" s="2"/>
+      <c r="C793" s="3"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
@@ -22929,7 +22932,7 @@
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
-      <c r="C794" s="2"/>
+      <c r="C794" s="3"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
@@ -22957,7 +22960,7 @@
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
-      <c r="C795" s="2"/>
+      <c r="C795" s="3"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
@@ -22985,7 +22988,7 @@
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
-      <c r="C796" s="2"/>
+      <c r="C796" s="3"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
@@ -23013,7 +23016,7 @@
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
-      <c r="C797" s="2"/>
+      <c r="C797" s="3"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
@@ -23041,7 +23044,7 @@
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
-      <c r="C798" s="2"/>
+      <c r="C798" s="3"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
@@ -23069,7 +23072,7 @@
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
-      <c r="C799" s="2"/>
+      <c r="C799" s="3"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
@@ -23097,7 +23100,7 @@
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
-      <c r="C800" s="2"/>
+      <c r="C800" s="3"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
@@ -23125,7 +23128,7 @@
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
-      <c r="C801" s="2"/>
+      <c r="C801" s="3"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
@@ -23153,7 +23156,7 @@
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
-      <c r="C802" s="2"/>
+      <c r="C802" s="3"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
@@ -23181,7 +23184,7 @@
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
-      <c r="C803" s="2"/>
+      <c r="C803" s="3"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
@@ -23209,7 +23212,7 @@
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
-      <c r="C804" s="2"/>
+      <c r="C804" s="3"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
@@ -23237,7 +23240,7 @@
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
-      <c r="C805" s="2"/>
+      <c r="C805" s="3"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
@@ -23265,7 +23268,7 @@
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
-      <c r="C806" s="2"/>
+      <c r="C806" s="3"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
@@ -23293,7 +23296,7 @@
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
-      <c r="C807" s="2"/>
+      <c r="C807" s="3"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
@@ -23321,7 +23324,7 @@
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
-      <c r="C808" s="2"/>
+      <c r="C808" s="3"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
@@ -23349,7 +23352,7 @@
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
-      <c r="C809" s="2"/>
+      <c r="C809" s="3"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
@@ -23377,7 +23380,7 @@
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
-      <c r="C810" s="2"/>
+      <c r="C810" s="3"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
@@ -23405,7 +23408,7 @@
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
-      <c r="C811" s="2"/>
+      <c r="C811" s="3"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
@@ -23433,7 +23436,7 @@
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
-      <c r="C812" s="2"/>
+      <c r="C812" s="3"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
@@ -23461,7 +23464,7 @@
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
-      <c r="C813" s="2"/>
+      <c r="C813" s="3"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
@@ -23489,7 +23492,7 @@
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
-      <c r="C814" s="2"/>
+      <c r="C814" s="3"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
@@ -23517,7 +23520,7 @@
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
-      <c r="C815" s="2"/>
+      <c r="C815" s="3"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
@@ -23545,7 +23548,7 @@
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
-      <c r="C816" s="2"/>
+      <c r="C816" s="3"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
@@ -23573,7 +23576,7 @@
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
-      <c r="C817" s="2"/>
+      <c r="C817" s="3"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
@@ -23601,7 +23604,7 @@
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
-      <c r="C818" s="2"/>
+      <c r="C818" s="3"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
@@ -23629,7 +23632,7 @@
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
-      <c r="C819" s="2"/>
+      <c r="C819" s="3"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
@@ -23657,7 +23660,7 @@
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
-      <c r="C820" s="2"/>
+      <c r="C820" s="3"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
@@ -23685,7 +23688,7 @@
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
-      <c r="C821" s="2"/>
+      <c r="C821" s="3"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
@@ -23713,7 +23716,7 @@
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
-      <c r="C822" s="2"/>
+      <c r="C822" s="3"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
@@ -23741,7 +23744,7 @@
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
-      <c r="C823" s="2"/>
+      <c r="C823" s="3"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
@@ -23769,7 +23772,7 @@
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
-      <c r="C824" s="2"/>
+      <c r="C824" s="3"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
@@ -23797,7 +23800,7 @@
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
-      <c r="C825" s="2"/>
+      <c r="C825" s="3"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
@@ -23825,7 +23828,7 @@
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
-      <c r="C826" s="2"/>
+      <c r="C826" s="3"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
@@ -23853,7 +23856,7 @@
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
-      <c r="C827" s="2"/>
+      <c r="C827" s="3"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
@@ -23881,7 +23884,7 @@
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
-      <c r="C828" s="2"/>
+      <c r="C828" s="3"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
@@ -23909,7 +23912,7 @@
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
-      <c r="C829" s="2"/>
+      <c r="C829" s="3"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
@@ -23937,7 +23940,7 @@
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
-      <c r="C830" s="2"/>
+      <c r="C830" s="3"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
@@ -23965,7 +23968,7 @@
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
-      <c r="C831" s="2"/>
+      <c r="C831" s="3"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
@@ -23993,7 +23996,7 @@
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
-      <c r="C832" s="2"/>
+      <c r="C832" s="3"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
@@ -24021,7 +24024,7 @@
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
-      <c r="C833" s="2"/>
+      <c r="C833" s="3"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
@@ -24049,7 +24052,7 @@
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
-      <c r="C834" s="2"/>
+      <c r="C834" s="3"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
@@ -24077,7 +24080,7 @@
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
-      <c r="C835" s="2"/>
+      <c r="C835" s="3"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
@@ -24105,7 +24108,7 @@
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
-      <c r="C836" s="2"/>
+      <c r="C836" s="3"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
@@ -24133,7 +24136,7 @@
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
-      <c r="C837" s="2"/>
+      <c r="C837" s="3"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
@@ -24161,7 +24164,7 @@
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
-      <c r="C838" s="2"/>
+      <c r="C838" s="3"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
@@ -24189,7 +24192,7 @@
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
-      <c r="C839" s="2"/>
+      <c r="C839" s="3"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
@@ -24217,7 +24220,7 @@
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
-      <c r="C840" s="2"/>
+      <c r="C840" s="3"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
@@ -24245,7 +24248,7 @@
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
-      <c r="C841" s="2"/>
+      <c r="C841" s="3"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
@@ -24273,7 +24276,7 @@
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
-      <c r="C842" s="2"/>
+      <c r="C842" s="3"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
@@ -24301,7 +24304,7 @@
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
-      <c r="C843" s="2"/>
+      <c r="C843" s="3"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
@@ -24329,7 +24332,7 @@
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
-      <c r="C844" s="2"/>
+      <c r="C844" s="3"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
@@ -24357,7 +24360,7 @@
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
-      <c r="C845" s="2"/>
+      <c r="C845" s="3"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
@@ -24385,7 +24388,7 @@
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
-      <c r="C846" s="2"/>
+      <c r="C846" s="3"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
@@ -24413,7 +24416,7 @@
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
-      <c r="C847" s="2"/>
+      <c r="C847" s="3"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
@@ -24441,7 +24444,7 @@
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
-      <c r="C848" s="2"/>
+      <c r="C848" s="3"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
@@ -24469,7 +24472,7 @@
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
-      <c r="C849" s="2"/>
+      <c r="C849" s="3"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
@@ -24497,7 +24500,7 @@
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
-      <c r="C850" s="2"/>
+      <c r="C850" s="3"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
@@ -24525,7 +24528,7 @@
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
-      <c r="C851" s="2"/>
+      <c r="C851" s="3"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
@@ -24553,7 +24556,7 @@
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
-      <c r="C852" s="2"/>
+      <c r="C852" s="3"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
@@ -24581,7 +24584,7 @@
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
-      <c r="C853" s="2"/>
+      <c r="C853" s="3"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
@@ -24609,7 +24612,7 @@
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
-      <c r="C854" s="2"/>
+      <c r="C854" s="3"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
@@ -24637,7 +24640,7 @@
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
-      <c r="C855" s="2"/>
+      <c r="C855" s="3"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
@@ -24665,7 +24668,7 @@
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
-      <c r="C856" s="2"/>
+      <c r="C856" s="3"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
@@ -24693,7 +24696,7 @@
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
-      <c r="C857" s="2"/>
+      <c r="C857" s="3"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
@@ -24721,7 +24724,7 @@
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
-      <c r="C858" s="2"/>
+      <c r="C858" s="3"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
@@ -24749,7 +24752,7 @@
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
-      <c r="C859" s="2"/>
+      <c r="C859" s="3"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
@@ -24777,7 +24780,7 @@
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
-      <c r="C860" s="2"/>
+      <c r="C860" s="3"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
@@ -24805,7 +24808,7 @@
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
-      <c r="C861" s="2"/>
+      <c r="C861" s="3"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
@@ -24833,7 +24836,7 @@
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
-      <c r="C862" s="2"/>
+      <c r="C862" s="3"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
@@ -24861,7 +24864,7 @@
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
-      <c r="C863" s="2"/>
+      <c r="C863" s="3"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
@@ -24889,7 +24892,7 @@
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
-      <c r="C864" s="2"/>
+      <c r="C864" s="3"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
@@ -24917,7 +24920,7 @@
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
-      <c r="C865" s="2"/>
+      <c r="C865" s="3"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
@@ -24945,7 +24948,7 @@
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
-      <c r="C866" s="2"/>
+      <c r="C866" s="3"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
@@ -24973,7 +24976,7 @@
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
-      <c r="C867" s="2"/>
+      <c r="C867" s="3"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
@@ -25001,7 +25004,7 @@
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
-      <c r="C868" s="2"/>
+      <c r="C868" s="3"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
@@ -25029,7 +25032,7 @@
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
-      <c r="C869" s="2"/>
+      <c r="C869" s="3"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
@@ -25057,7 +25060,7 @@
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
-      <c r="C870" s="2"/>
+      <c r="C870" s="3"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
@@ -25085,7 +25088,7 @@
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
-      <c r="C871" s="2"/>
+      <c r="C871" s="3"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
@@ -25113,7 +25116,7 @@
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
-      <c r="C872" s="2"/>
+      <c r="C872" s="3"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
@@ -25141,7 +25144,7 @@
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
-      <c r="C873" s="2"/>
+      <c r="C873" s="3"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
@@ -25169,7 +25172,7 @@
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
-      <c r="C874" s="2"/>
+      <c r="C874" s="3"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
@@ -25197,7 +25200,7 @@
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
-      <c r="C875" s="2"/>
+      <c r="C875" s="3"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
@@ -25225,7 +25228,7 @@
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
-      <c r="C876" s="2"/>
+      <c r="C876" s="3"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
@@ -25253,7 +25256,7 @@
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
-      <c r="C877" s="2"/>
+      <c r="C877" s="3"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
@@ -25281,7 +25284,7 @@
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
-      <c r="C878" s="2"/>
+      <c r="C878" s="3"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
@@ -25309,7 +25312,7 @@
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
-      <c r="C879" s="2"/>
+      <c r="C879" s="3"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
@@ -25337,7 +25340,7 @@
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
-      <c r="C880" s="2"/>
+      <c r="C880" s="3"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
@@ -25365,7 +25368,7 @@
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
-      <c r="C881" s="2"/>
+      <c r="C881" s="3"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
@@ -25393,7 +25396,7 @@
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
-      <c r="C882" s="2"/>
+      <c r="C882" s="3"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
@@ -25421,7 +25424,7 @@
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
-      <c r="C883" s="2"/>
+      <c r="C883" s="3"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
@@ -25449,7 +25452,7 @@
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
-      <c r="C884" s="2"/>
+      <c r="C884" s="3"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
@@ -25477,7 +25480,7 @@
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
-      <c r="C885" s="2"/>
+      <c r="C885" s="3"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
@@ -25505,7 +25508,7 @@
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
-      <c r="C886" s="2"/>
+      <c r="C886" s="3"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
@@ -25533,7 +25536,7 @@
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
-      <c r="C887" s="2"/>
+      <c r="C887" s="3"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
@@ -25561,7 +25564,7 @@
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
-      <c r="C888" s="2"/>
+      <c r="C888" s="3"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
@@ -25589,7 +25592,7 @@
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
-      <c r="C889" s="2"/>
+      <c r="C889" s="3"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
@@ -25617,7 +25620,7 @@
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
-      <c r="C890" s="2"/>
+      <c r="C890" s="3"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
@@ -25645,7 +25648,7 @@
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
-      <c r="C891" s="2"/>
+      <c r="C891" s="3"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
@@ -25673,7 +25676,7 @@
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
-      <c r="C892" s="2"/>
+      <c r="C892" s="3"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
@@ -25701,7 +25704,7 @@
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
-      <c r="C893" s="2"/>
+      <c r="C893" s="3"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
@@ -25729,7 +25732,7 @@
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
-      <c r="C894" s="2"/>
+      <c r="C894" s="3"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
@@ -25757,7 +25760,7 @@
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
-      <c r="C895" s="2"/>
+      <c r="C895" s="3"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
@@ -25785,7 +25788,7 @@
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
-      <c r="C896" s="2"/>
+      <c r="C896" s="3"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
@@ -25813,7 +25816,7 @@
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
-      <c r="C897" s="2"/>
+      <c r="C897" s="3"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
@@ -25841,7 +25844,7 @@
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
-      <c r="C898" s="2"/>
+      <c r="C898" s="3"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
@@ -25869,7 +25872,7 @@
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
-      <c r="C899" s="2"/>
+      <c r="C899" s="3"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
@@ -25897,7 +25900,7 @@
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
-      <c r="C900" s="2"/>
+      <c r="C900" s="3"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
@@ -25925,7 +25928,7 @@
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
-      <c r="C901" s="2"/>
+      <c r="C901" s="3"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
@@ -25953,7 +25956,7 @@
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
-      <c r="C902" s="2"/>
+      <c r="C902" s="3"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
@@ -25981,7 +25984,7 @@
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
-      <c r="C903" s="2"/>
+      <c r="C903" s="3"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
@@ -26009,7 +26012,7 @@
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
-      <c r="C904" s="2"/>
+      <c r="C904" s="3"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
@@ -26037,7 +26040,7 @@
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
-      <c r="C905" s="2"/>
+      <c r="C905" s="3"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
@@ -26065,7 +26068,7 @@
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
-      <c r="C906" s="2"/>
+      <c r="C906" s="3"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
@@ -26093,7 +26096,7 @@
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
-      <c r="C907" s="2"/>
+      <c r="C907" s="3"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
@@ -26121,7 +26124,7 @@
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
-      <c r="C908" s="2"/>
+      <c r="C908" s="3"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
@@ -26149,7 +26152,7 @@
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
-      <c r="C909" s="2"/>
+      <c r="C909" s="3"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
@@ -26177,7 +26180,7 @@
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
-      <c r="C910" s="2"/>
+      <c r="C910" s="3"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
@@ -26205,7 +26208,7 @@
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
-      <c r="C911" s="2"/>
+      <c r="C911" s="3"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
@@ -26233,7 +26236,7 @@
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
-      <c r="C912" s="2"/>
+      <c r="C912" s="3"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
@@ -26261,7 +26264,7 @@
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
-      <c r="C913" s="2"/>
+      <c r="C913" s="3"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
@@ -26289,7 +26292,7 @@
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
-      <c r="C914" s="2"/>
+      <c r="C914" s="3"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
@@ -26317,7 +26320,7 @@
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
-      <c r="C915" s="2"/>
+      <c r="C915" s="3"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
@@ -26345,7 +26348,7 @@
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
-      <c r="C916" s="2"/>
+      <c r="C916" s="3"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
@@ -26373,7 +26376,7 @@
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
-      <c r="C917" s="2"/>
+      <c r="C917" s="3"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
@@ -26401,7 +26404,7 @@
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
-      <c r="C918" s="2"/>
+      <c r="C918" s="3"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
@@ -26429,7 +26432,7 @@
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
-      <c r="C919" s="2"/>
+      <c r="C919" s="3"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
@@ -26457,7 +26460,7 @@
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
-      <c r="C920" s="2"/>
+      <c r="C920" s="3"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
@@ -26485,7 +26488,7 @@
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
-      <c r="C921" s="2"/>
+      <c r="C921" s="3"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
@@ -26513,7 +26516,7 @@
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
-      <c r="C922" s="2"/>
+      <c r="C922" s="3"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
@@ -26541,7 +26544,7 @@
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
-      <c r="C923" s="2"/>
+      <c r="C923" s="3"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
@@ -26569,7 +26572,7 @@
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
-      <c r="C924" s="2"/>
+      <c r="C924" s="3"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
@@ -26597,7 +26600,7 @@
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
-      <c r="C925" s="2"/>
+      <c r="C925" s="3"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
@@ -26625,7 +26628,7 @@
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
-      <c r="C926" s="2"/>
+      <c r="C926" s="3"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
@@ -26653,7 +26656,7 @@
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
-      <c r="C927" s="2"/>
+      <c r="C927" s="3"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
@@ -26681,7 +26684,7 @@
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
-      <c r="C928" s="2"/>
+      <c r="C928" s="3"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
@@ -26709,7 +26712,7 @@
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
-      <c r="C929" s="2"/>
+      <c r="C929" s="3"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
@@ -26737,7 +26740,7 @@
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
-      <c r="C930" s="2"/>
+      <c r="C930" s="3"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
@@ -26765,7 +26768,7 @@
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
-      <c r="C931" s="2"/>
+      <c r="C931" s="3"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
@@ -26793,7 +26796,7 @@
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
-      <c r="C932" s="2"/>
+      <c r="C932" s="3"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
@@ -26821,7 +26824,7 @@
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
-      <c r="C933" s="2"/>
+      <c r="C933" s="3"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
@@ -26849,7 +26852,7 @@
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
-      <c r="C934" s="2"/>
+      <c r="C934" s="3"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
@@ -26877,7 +26880,7 @@
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
-      <c r="C935" s="2"/>
+      <c r="C935" s="3"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
@@ -26905,7 +26908,7 @@
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
-      <c r="C936" s="2"/>
+      <c r="C936" s="3"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
@@ -26933,7 +26936,7 @@
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
-      <c r="C937" s="2"/>
+      <c r="C937" s="3"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
@@ -26961,7 +26964,7 @@
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
-      <c r="C938" s="2"/>
+      <c r="C938" s="3"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
@@ -26989,7 +26992,7 @@
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
-      <c r="C939" s="2"/>
+      <c r="C939" s="3"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
@@ -27017,7 +27020,7 @@
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
-      <c r="C940" s="2"/>
+      <c r="C940" s="3"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
@@ -27045,7 +27048,7 @@
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
-      <c r="C941" s="2"/>
+      <c r="C941" s="3"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
@@ -27073,7 +27076,7 @@
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
-      <c r="C942" s="2"/>
+      <c r="C942" s="3"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
@@ -27101,7 +27104,7 @@
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
-      <c r="C943" s="2"/>
+      <c r="C943" s="3"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
@@ -27129,7 +27132,7 @@
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
-      <c r="C944" s="2"/>
+      <c r="C944" s="3"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
@@ -27157,7 +27160,7 @@
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
-      <c r="C945" s="2"/>
+      <c r="C945" s="3"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
@@ -27185,7 +27188,7 @@
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
-      <c r="C946" s="2"/>
+      <c r="C946" s="3"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
@@ -27213,7 +27216,7 @@
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
-      <c r="C947" s="2"/>
+      <c r="C947" s="3"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
@@ -27241,7 +27244,7 @@
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
-      <c r="C948" s="2"/>
+      <c r="C948" s="3"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
@@ -27269,7 +27272,7 @@
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
-      <c r="C949" s="2"/>
+      <c r="C949" s="3"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
@@ -27297,7 +27300,7 @@
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
-      <c r="C950" s="2"/>
+      <c r="C950" s="3"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
@@ -27325,7 +27328,7 @@
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
-      <c r="C951" s="2"/>
+      <c r="C951" s="3"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
@@ -27353,7 +27356,7 @@
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
-      <c r="C952" s="2"/>
+      <c r="C952" s="3"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
@@ -27381,7 +27384,7 @@
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
-      <c r="C953" s="2"/>
+      <c r="C953" s="3"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
@@ -27409,7 +27412,7 @@
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
-      <c r="C954" s="2"/>
+      <c r="C954" s="3"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
@@ -27437,7 +27440,7 @@
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
-      <c r="C955" s="2"/>
+      <c r="C955" s="3"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
@@ -27465,7 +27468,7 @@
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
-      <c r="C956" s="2"/>
+      <c r="C956" s="3"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
@@ -27493,7 +27496,7 @@
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
-      <c r="C957" s="2"/>
+      <c r="C957" s="3"/>
       <c r="D957" s="2"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
@@ -27521,7 +27524,7 @@
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
-      <c r="C958" s="2"/>
+      <c r="C958" s="3"/>
       <c r="D958" s="2"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
@@ -27549,7 +27552,7 @@
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
-      <c r="C959" s="2"/>
+      <c r="C959" s="3"/>
       <c r="D959" s="2"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
@@ -27577,7 +27580,7 @@
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
-      <c r="C960" s="2"/>
+      <c r="C960" s="3"/>
       <c r="D960" s="2"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
@@ -27605,7 +27608,7 @@
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
-      <c r="C961" s="2"/>
+      <c r="C961" s="3"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
@@ -27633,7 +27636,7 @@
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
-      <c r="C962" s="2"/>
+      <c r="C962" s="3"/>
       <c r="D962" s="2"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
@@ -27661,7 +27664,7 @@
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
-      <c r="C963" s="2"/>
+      <c r="C963" s="3"/>
       <c r="D963" s="2"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
@@ -27689,7 +27692,7 @@
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
-      <c r="C964" s="2"/>
+      <c r="C964" s="3"/>
       <c r="D964" s="2"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
@@ -27717,7 +27720,7 @@
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
-      <c r="C965" s="2"/>
+      <c r="C965" s="3"/>
       <c r="D965" s="2"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
@@ -27745,7 +27748,7 @@
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
-      <c r="C966" s="2"/>
+      <c r="C966" s="3"/>
       <c r="D966" s="2"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
@@ -27773,7 +27776,7 @@
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
-      <c r="C967" s="2"/>
+      <c r="C967" s="3"/>
       <c r="D967" s="2"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
@@ -27801,7 +27804,7 @@
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
-      <c r="C968" s="2"/>
+      <c r="C968" s="3"/>
       <c r="D968" s="2"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
@@ -27829,7 +27832,7 @@
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
-      <c r="C969" s="2"/>
+      <c r="C969" s="3"/>
       <c r="D969" s="2"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
@@ -27857,7 +27860,7 @@
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
-      <c r="C970" s="2"/>
+      <c r="C970" s="3"/>
       <c r="D970" s="2"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
@@ -27885,7 +27888,7 @@
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
-      <c r="C971" s="2"/>
+      <c r="C971" s="3"/>
       <c r="D971" s="2"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
@@ -27913,7 +27916,7 @@
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
-      <c r="C972" s="2"/>
+      <c r="C972" s="3"/>
       <c r="D972" s="2"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
@@ -27941,7 +27944,7 @@
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
-      <c r="C973" s="2"/>
+      <c r="C973" s="3"/>
       <c r="D973" s="2"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
@@ -27969,7 +27972,7 @@
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
+      <c r="C974" s="3"/>
       <c r="D974" s="2"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
@@ -27997,7 +28000,7 @@
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
+      <c r="C975" s="3"/>
       <c r="D975" s="2"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
@@ -28025,7 +28028,7 @@
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
+      <c r="C976" s="3"/>
       <c r="D976" s="2"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
@@ -28053,7 +28056,7 @@
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
-      <c r="C977" s="2"/>
+      <c r="C977" s="3"/>
       <c r="D977" s="2"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
@@ -28081,7 +28084,7 @@
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
-      <c r="C978" s="2"/>
+      <c r="C978" s="3"/>
       <c r="D978" s="2"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
@@ -28109,7 +28112,7 @@
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
-      <c r="C979" s="2"/>
+      <c r="C979" s="3"/>
       <c r="D979" s="2"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
@@ -28137,7 +28140,7 @@
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
+      <c r="C980" s="3"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
@@ -28165,7 +28168,7 @@
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
+      <c r="C981" s="3"/>
       <c r="D981" s="2"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
@@ -28193,7 +28196,7 @@
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
+      <c r="C982" s="3"/>
       <c r="D982" s="2"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
@@ -28221,7 +28224,7 @@
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
+      <c r="C983" s="3"/>
       <c r="D983" s="2"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
@@ -28249,7 +28252,7 @@
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
-      <c r="C984" s="2"/>
+      <c r="C984" s="3"/>
       <c r="D984" s="2"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
@@ -28277,7 +28280,7 @@
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
-      <c r="C985" s="2"/>
+      <c r="C985" s="3"/>
       <c r="D985" s="2"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
@@ -28305,7 +28308,7 @@
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
+      <c r="C986" s="3"/>
       <c r="D986" s="2"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
@@ -28333,7 +28336,7 @@
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
+      <c r="C987" s="3"/>
       <c r="D987" s="2"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
@@ -28361,7 +28364,7 @@
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
+      <c r="C988" s="3"/>
       <c r="D988" s="2"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
@@ -28389,7 +28392,7 @@
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
+      <c r="C989" s="3"/>
       <c r="D989" s="2"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
@@ -28417,7 +28420,7 @@
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
+      <c r="C990" s="3"/>
       <c r="D990" s="2"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
@@ -28445,7 +28448,7 @@
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
+      <c r="C991" s="3"/>
       <c r="D991" s="2"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
@@ -28473,7 +28476,7 @@
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
+      <c r="C992" s="3"/>
       <c r="D992" s="2"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
@@ -28501,7 +28504,7 @@
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
+      <c r="C993" s="3"/>
       <c r="D993" s="2"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
@@ -28529,7 +28532,7 @@
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
+      <c r="C994" s="3"/>
       <c r="D994" s="2"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
@@ -28557,7 +28560,7 @@
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
+      <c r="C995" s="3"/>
       <c r="D995" s="2"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
@@ -28585,7 +28588,7 @@
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
+      <c r="C996" s="3"/>
       <c r="D996" s="2"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
@@ -28613,7 +28616,7 @@
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
+      <c r="C997" s="3"/>
       <c r="D997" s="2"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
@@ -28641,7 +28644,7 @@
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
+      <c r="C998" s="3"/>
       <c r="D998" s="2"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
@@ -28669,7 +28672,7 @@
     <row r="999" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
+      <c r="C999" s="3"/>
       <c r="D999" s="2"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
@@ -28697,7 +28700,7 @@
     <row r="1000" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
+      <c r="C1000" s="3"/>
       <c r="D1000" s="2"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
@@ -28724,7 +28727,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D12 D14:D23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D23">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -945,8 +945,8 @@
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1017,8 +1017,8 @@
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -277,12 +277,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -909,7 +909,7 @@
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2"/>
@@ -945,7 +945,7 @@
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2"/>
@@ -972,13 +972,13 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1017,7 +1017,7 @@
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>6</v>
+      <c r="D19" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Documents\GitHub\JumpyStreetSGD285\Non-Game-Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4573B-FA2D-4CC5-BB6C-5BBF9354C9A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Project Plan" sheetId="1" r:id="rId4"/>
+    <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgVK0ozTl2JgZh4sY1QNuhl1CN/Xg=="/>
@@ -147,21 +156,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -171,11 +180,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -183,17 +198,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -208,17 +228,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -230,136 +253,128 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Project Plan-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Project Plan-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D23" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:D23">
   <tableColumns count="4">
-    <tableColumn name="Features and Description" id="1"/>
-    <tableColumn name="Estimated Implementation" id="2"/>
-    <tableColumn name="Assigned To" id="3"/>
-    <tableColumn name="Status" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Features and Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated Implementation"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
   </tableColumns>
-  <tableStyleInfo name="Project Plan-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Project Plan-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -549,27 +564,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="89.5"/>
-    <col customWidth="1" min="2" max="2" width="25.25"/>
-    <col customWidth="1" min="3" max="3" width="13.75"/>
-    <col customWidth="1" min="4" max="4" width="26.5"/>
-    <col customWidth="1" min="5" max="26" width="7.75"/>
+    <col min="1" max="1" width="89.5" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="26" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +616,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="55.5" customHeight="1">
+    <row r="2" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -629,7 +646,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="41.25" customHeight="1">
+    <row r="3" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -665,7 +682,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" ht="41.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:26" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -695,7 +712,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="41.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:26" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -725,7 +742,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="41.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:26" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -755,7 +772,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="30.0" customHeight="1">
+    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -766,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -791,7 +808,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="30.0" customHeight="1">
+    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -827,7 +844,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="30.0" customHeight="1">
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +880,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="30.0" customHeight="1">
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -874,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -899,7 +916,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="30.0" customHeight="1">
+    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -935,7 +952,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="30.0" customHeight="1">
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -971,7 +988,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="28.5" customHeight="1">
+    <row r="13" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1024,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="30.0" customHeight="1">
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1015,10 +1032,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1043,7 +1060,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="30.0" customHeight="1">
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1079,7 +1096,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="30.0" customHeight="1">
+    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1115,7 +1132,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="30.0" customHeight="1">
+    <row r="17" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1151,7 +1168,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
+    <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1187,7 +1204,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="30.0" customHeight="1">
+    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
@@ -1223,7 +1240,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="30.0" customHeight="1">
+    <row r="20" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1276,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="30.0" customHeight="1">
+    <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1312,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="30.0" customHeight="1">
+    <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1348,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="30.0" customHeight="1">
+    <row r="23" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
@@ -1367,7 +1384,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1397,7 +1414,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1425,7 +1442,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1453,7 +1470,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1481,7 +1498,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1509,7 +1526,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1537,7 +1554,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1565,7 +1582,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1593,7 +1610,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1621,7 +1638,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1649,7 +1666,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1677,7 +1694,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
@@ -1705,7 +1722,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -1733,7 +1750,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -1761,7 +1778,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1789,7 +1806,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -1817,7 +1834,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -1845,7 +1862,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -1873,7 +1890,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -1901,7 +1918,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -1929,7 +1946,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -1957,7 +1974,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -1985,7 +2002,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -2013,7 +2030,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -2041,7 +2058,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -2069,7 +2086,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -2097,7 +2114,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -2125,7 +2142,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -2153,7 +2170,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -2181,7 +2198,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -2209,7 +2226,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2237,7 +2254,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2265,7 +2282,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -2293,7 +2310,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -2321,7 +2338,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -2349,7 +2366,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -2377,7 +2394,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
@@ -2405,7 +2422,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
@@ -2433,7 +2450,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
@@ -2461,7 +2478,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2489,7 +2506,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2517,7 +2534,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2545,7 +2562,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2573,7 +2590,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
@@ -2601,7 +2618,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
@@ -2629,7 +2646,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
@@ -2657,7 +2674,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
@@ -2685,7 +2702,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
@@ -2713,7 +2730,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2741,7 +2758,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -2769,7 +2786,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -2797,7 +2814,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
@@ -2825,7 +2842,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
@@ -2853,7 +2870,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
@@ -2881,7 +2898,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
@@ -2909,7 +2926,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
@@ -2937,7 +2954,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -2965,7 +2982,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
@@ -2993,7 +3010,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -3021,7 +3038,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
@@ -3049,7 +3066,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -3077,7 +3094,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
@@ -3105,7 +3122,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -3133,7 +3150,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -3161,7 +3178,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -3189,7 +3206,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -3217,7 +3234,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
@@ -3245,7 +3262,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -3273,7 +3290,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -3301,7 +3318,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
@@ -3329,7 +3346,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -3357,7 +3374,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
@@ -3385,7 +3402,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -3413,7 +3430,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
@@ -3441,7 +3458,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
@@ -3469,7 +3486,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
@@ -3497,7 +3514,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
@@ -3525,7 +3542,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
@@ -3553,7 +3570,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -3581,7 +3598,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -3609,7 +3626,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -3637,7 +3654,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -3665,7 +3682,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -3693,7 +3710,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -3721,7 +3738,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -3749,7 +3766,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -3777,7 +3794,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -3805,7 +3822,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -3833,7 +3850,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -3861,7 +3878,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -3889,7 +3906,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
@@ -3917,7 +3934,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
@@ -3945,7 +3962,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -3973,7 +3990,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
@@ -4001,7 +4018,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
@@ -4029,7 +4046,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
@@ -4057,7 +4074,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -4085,7 +4102,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
@@ -4113,7 +4130,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
@@ -4141,7 +4158,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
@@ -4169,7 +4186,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -4197,7 +4214,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
@@ -4225,7 +4242,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
@@ -4253,7 +4270,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
@@ -4281,7 +4298,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
@@ -4309,7 +4326,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
@@ -4337,7 +4354,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
@@ -4365,7 +4382,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
@@ -4393,7 +4410,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
@@ -4421,7 +4438,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
@@ -4449,7 +4466,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
@@ -4477,7 +4494,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -4505,7 +4522,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -4533,7 +4550,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
@@ -4561,7 +4578,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
@@ -4589,7 +4606,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
@@ -4617,7 +4634,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
@@ -4645,7 +4662,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -4673,7 +4690,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
@@ -4701,7 +4718,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
@@ -4729,7 +4746,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
@@ -4757,7 +4774,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
@@ -4785,7 +4802,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
@@ -4813,7 +4830,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
@@ -4841,7 +4858,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
@@ -4869,7 +4886,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
@@ -4897,7 +4914,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
@@ -4925,7 +4942,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
@@ -4953,7 +4970,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
@@ -4981,7 +4998,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
@@ -5009,7 +5026,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
@@ -5037,7 +5054,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
@@ -5065,7 +5082,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
@@ -5093,7 +5110,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
@@ -5121,7 +5138,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
@@ -5149,7 +5166,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
@@ -5177,7 +5194,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
@@ -5205,7 +5222,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
@@ -5233,7 +5250,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
@@ -5261,7 +5278,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
@@ -5289,7 +5306,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
@@ -5317,7 +5334,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
@@ -5345,7 +5362,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
@@ -5373,7 +5390,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
@@ -5401,7 +5418,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
@@ -5429,7 +5446,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
@@ -5457,7 +5474,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
@@ -5485,7 +5502,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
@@ -5513,7 +5530,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
@@ -5541,7 +5558,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -5569,7 +5586,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
@@ -5597,7 +5614,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
@@ -5625,7 +5642,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
@@ -5653,7 +5670,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
@@ -5681,7 +5698,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
@@ -5709,7 +5726,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
@@ -5737,7 +5754,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
@@ -5765,7 +5782,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -5793,7 +5810,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
@@ -5821,7 +5838,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
@@ -5849,7 +5866,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
@@ -5877,7 +5894,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
@@ -5905,7 +5922,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
@@ -5933,7 +5950,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
@@ -5961,7 +5978,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
@@ -5989,7 +6006,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
@@ -6017,7 +6034,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
@@ -6045,7 +6062,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3"/>
@@ -6073,7 +6090,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
@@ -6101,7 +6118,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
@@ -6129,7 +6146,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
@@ -6157,7 +6174,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="3"/>
@@ -6185,7 +6202,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
@@ -6213,7 +6230,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="3"/>
@@ -6241,7 +6258,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
@@ -6269,7 +6286,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="3"/>
@@ -6297,7 +6314,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="3"/>
@@ -6325,7 +6342,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="3"/>
@@ -6353,7 +6370,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="3"/>
@@ -6381,7 +6398,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
@@ -6409,7 +6426,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="3"/>
@@ -6437,7 +6454,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
@@ -6465,7 +6482,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
@@ -6493,7 +6510,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
@@ -6521,7 +6538,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
@@ -6549,7 +6566,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
@@ -6577,7 +6594,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
@@ -6605,7 +6622,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
@@ -6633,7 +6650,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -6661,7 +6678,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
@@ -6689,7 +6706,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
@@ -6717,7 +6734,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
@@ -6745,7 +6762,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
@@ -6773,7 +6790,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
@@ -6801,7 +6818,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -6829,7 +6846,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
@@ -6857,7 +6874,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
@@ -6885,7 +6902,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
@@ -6913,7 +6930,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
@@ -6941,7 +6958,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
@@ -6969,7 +6986,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
@@ -6997,7 +7014,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -7025,7 +7042,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
@@ -7053,7 +7070,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
@@ -7081,7 +7098,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -7109,7 +7126,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -7137,7 +7154,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -7165,7 +7182,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -7193,7 +7210,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -7221,7 +7238,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -7249,7 +7266,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -7277,7 +7294,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -7305,7 +7322,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -7333,7 +7350,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -7361,7 +7378,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -7389,7 +7406,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -7417,7 +7434,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -7445,7 +7462,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -7473,7 +7490,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -7501,7 +7518,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -7529,7 +7546,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -7557,7 +7574,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -7585,7 +7602,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -7613,7 +7630,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -7641,7 +7658,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -7669,7 +7686,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -7697,7 +7714,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -7725,7 +7742,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -7753,7 +7770,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -7781,7 +7798,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -7809,7 +7826,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -7837,7 +7854,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -7865,7 +7882,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -7893,7 +7910,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -7921,7 +7938,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -7949,7 +7966,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -7977,7 +7994,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -8005,7 +8022,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -8033,7 +8050,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -8061,7 +8078,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -8089,7 +8106,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -8117,7 +8134,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -8145,7 +8162,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -8173,7 +8190,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -8201,7 +8218,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -8229,7 +8246,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -8257,7 +8274,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -8285,7 +8302,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -8313,7 +8330,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -8341,7 +8358,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
@@ -8369,7 +8386,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
@@ -8397,7 +8414,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -8425,7 +8442,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -8453,7 +8470,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -8481,7 +8498,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -8509,7 +8526,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -8537,7 +8554,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -8565,7 +8582,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -8593,7 +8610,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -8621,7 +8638,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
@@ -8649,7 +8666,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
@@ -8677,7 +8694,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
@@ -8705,7 +8722,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
@@ -8733,7 +8750,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="3"/>
@@ -8761,7 +8778,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="3"/>
@@ -8789,7 +8806,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3"/>
@@ -8817,7 +8834,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="3"/>
@@ -8845,7 +8862,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="3"/>
@@ -8873,7 +8890,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="3"/>
@@ -8901,7 +8918,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
@@ -8929,7 +8946,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="3"/>
@@ -8957,7 +8974,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
@@ -8985,7 +9002,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="3"/>
@@ -9013,7 +9030,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="3"/>
@@ -9041,7 +9058,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="3"/>
@@ -9069,7 +9086,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="3"/>
@@ -9097,7 +9114,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="3"/>
@@ -9125,7 +9142,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="3"/>
@@ -9153,7 +9170,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="3"/>
@@ -9181,7 +9198,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="3"/>
@@ -9209,7 +9226,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
@@ -9237,7 +9254,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="3"/>
@@ -9265,7 +9282,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="3"/>
@@ -9293,7 +9310,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="3"/>
@@ -9321,7 +9338,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="3"/>
@@ -9349,7 +9366,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="3"/>
@@ -9377,7 +9394,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="3"/>
@@ -9405,7 +9422,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="3"/>
@@ -9433,7 +9450,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="3"/>
@@ -9461,7 +9478,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="3"/>
@@ -9489,7 +9506,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="3"/>
@@ -9517,7 +9534,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="3"/>
@@ -9545,7 +9562,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="3"/>
@@ -9573,7 +9590,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="3"/>
@@ -9601,7 +9618,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="3"/>
@@ -9629,7 +9646,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="3"/>
@@ -9657,7 +9674,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="3"/>
@@ -9685,7 +9702,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="3"/>
@@ -9713,7 +9730,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="3"/>
@@ -9741,7 +9758,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="3"/>
@@ -9769,7 +9786,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="3"/>
@@ -9797,7 +9814,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="3"/>
@@ -9825,7 +9842,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="3"/>
@@ -9853,7 +9870,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="3"/>
@@ -9881,7 +9898,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="3"/>
@@ -9909,7 +9926,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="3"/>
@@ -9937,7 +9954,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="3"/>
@@ -9965,7 +9982,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="3"/>
@@ -9993,7 +10010,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3"/>
@@ -10021,7 +10038,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="3"/>
@@ -10049,7 +10066,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3"/>
@@ -10077,7 +10094,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="3"/>
@@ -10105,7 +10122,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="3"/>
@@ -10133,7 +10150,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="3"/>
@@ -10161,7 +10178,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="3"/>
@@ -10189,7 +10206,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="3"/>
@@ -10217,7 +10234,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="3"/>
@@ -10245,7 +10262,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -10273,7 +10290,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -10301,7 +10318,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -10329,7 +10346,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -10357,7 +10374,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -10385,7 +10402,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -10413,7 +10430,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -10441,7 +10458,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -10469,7 +10486,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -10497,7 +10514,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -10525,7 +10542,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -10553,7 +10570,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -10581,7 +10598,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -10609,7 +10626,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -10637,7 +10654,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -10665,7 +10682,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -10693,7 +10710,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -10721,7 +10738,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -10749,7 +10766,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -10777,7 +10794,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -10805,7 +10822,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -10833,7 +10850,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -10861,7 +10878,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -10889,7 +10906,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -10917,7 +10934,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -10945,7 +10962,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -10973,7 +10990,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -11001,7 +11018,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -11029,7 +11046,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -11057,7 +11074,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
@@ -11085,7 +11102,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="3"/>
@@ -11113,7 +11130,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
@@ -11141,7 +11158,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="3"/>
@@ -11169,7 +11186,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="3"/>
@@ -11197,7 +11214,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="3"/>
@@ -11225,7 +11242,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
@@ -11253,7 +11270,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="3"/>
@@ -11281,7 +11298,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
@@ -11309,7 +11326,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="3"/>
@@ -11337,7 +11354,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
@@ -11365,7 +11382,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="3"/>
@@ -11393,7 +11410,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
@@ -11421,7 +11438,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="3"/>
@@ -11449,7 +11466,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
@@ -11477,7 +11494,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="3"/>
@@ -11505,7 +11522,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
@@ -11533,7 +11550,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="3"/>
@@ -11561,7 +11578,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
@@ -11589,7 +11606,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="3"/>
@@ -11617,7 +11634,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
@@ -11645,7 +11662,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="3"/>
@@ -11673,7 +11690,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="3"/>
@@ -11701,7 +11718,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="3"/>
@@ -11729,7 +11746,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="3"/>
@@ -11757,7 +11774,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="3"/>
@@ -11785,7 +11802,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="3"/>
@@ -11813,7 +11830,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="3"/>
@@ -11841,7 +11858,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="3"/>
@@ -11869,7 +11886,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="3"/>
@@ -11897,7 +11914,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="3"/>
@@ -11925,7 +11942,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="3"/>
@@ -11953,7 +11970,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="3"/>
@@ -11981,7 +11998,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="3"/>
@@ -12009,7 +12026,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="3"/>
@@ -12037,7 +12054,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="3"/>
@@ -12065,7 +12082,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="3"/>
@@ -12093,7 +12110,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="3"/>
@@ -12121,7 +12138,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="3"/>
@@ -12149,7 +12166,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="3"/>
@@ -12177,7 +12194,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="3"/>
@@ -12205,7 +12222,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="3"/>
@@ -12233,7 +12250,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="3"/>
@@ -12261,7 +12278,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="3"/>
@@ -12289,7 +12306,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="3"/>
@@ -12317,7 +12334,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="3"/>
@@ -12345,7 +12362,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="3"/>
@@ -12373,7 +12390,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="3"/>
@@ -12401,7 +12418,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="3"/>
@@ -12429,7 +12446,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="3"/>
@@ -12457,7 +12474,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="3"/>
@@ -12485,7 +12502,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="3"/>
@@ -12513,7 +12530,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="3"/>
@@ -12541,7 +12558,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="3"/>
@@ -12569,7 +12586,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="3"/>
@@ -12597,7 +12614,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="3"/>
@@ -12625,7 +12642,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="3"/>
@@ -12653,7 +12670,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="3"/>
@@ -12681,7 +12698,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="3"/>
@@ -12709,7 +12726,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="3"/>
@@ -12737,7 +12754,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="3"/>
@@ -12765,7 +12782,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="3"/>
@@ -12793,7 +12810,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="3"/>
@@ -12821,7 +12838,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="3"/>
@@ -12849,7 +12866,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="3"/>
@@ -12877,7 +12894,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="3"/>
@@ -12905,7 +12922,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="3"/>
@@ -12933,7 +12950,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="3"/>
@@ -12961,7 +12978,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="3"/>
@@ -12989,7 +13006,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="3"/>
@@ -13017,7 +13034,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="3"/>
@@ -13045,7 +13062,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="3"/>
@@ -13073,7 +13090,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="3"/>
@@ -13101,7 +13118,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="3"/>
@@ -13129,7 +13146,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="3"/>
@@ -13157,7 +13174,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="3"/>
@@ -13185,7 +13202,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="3"/>
@@ -13213,7 +13230,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="3"/>
@@ -13241,7 +13258,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="3"/>
@@ -13269,7 +13286,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="3"/>
@@ -13297,7 +13314,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="3"/>
@@ -13325,7 +13342,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="3"/>
@@ -13353,7 +13370,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="3"/>
@@ -13381,7 +13398,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="3"/>
@@ -13409,7 +13426,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="3"/>
@@ -13437,7 +13454,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="3"/>
@@ -13465,7 +13482,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="3"/>
@@ -13493,7 +13510,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="3"/>
@@ -13521,7 +13538,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="3"/>
@@ -13549,7 +13566,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="3"/>
@@ -13577,7 +13594,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="3"/>
@@ -13605,7 +13622,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="3"/>
@@ -13633,7 +13650,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="3"/>
@@ -13661,7 +13678,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="3"/>
@@ -13689,7 +13706,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="3"/>
@@ -13717,7 +13734,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="3"/>
@@ -13745,7 +13762,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="3"/>
@@ -13773,7 +13790,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="3"/>
@@ -13801,7 +13818,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="3"/>
@@ -13829,7 +13846,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="3"/>
@@ -13857,7 +13874,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="3"/>
@@ -13885,7 +13902,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="3"/>
@@ -13913,7 +13930,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="3"/>
@@ -13941,7 +13958,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="3"/>
@@ -13969,7 +13986,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="3"/>
@@ -13997,7 +14014,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="3"/>
@@ -14025,7 +14042,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="3"/>
@@ -14053,7 +14070,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="3"/>
@@ -14081,7 +14098,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="3"/>
@@ -14109,7 +14126,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="3"/>
@@ -14137,7 +14154,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="3"/>
@@ -14165,7 +14182,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="3"/>
@@ -14193,7 +14210,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="3"/>
@@ -14221,7 +14238,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="3"/>
@@ -14249,7 +14266,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="3"/>
@@ -14277,7 +14294,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="3"/>
@@ -14305,7 +14322,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="3"/>
@@ -14333,7 +14350,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="3"/>
@@ -14361,7 +14378,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="3"/>
@@ -14389,7 +14406,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="3"/>
@@ -14417,7 +14434,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="3"/>
@@ -14445,7 +14462,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="3"/>
@@ -14473,7 +14490,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="3"/>
@@ -14501,7 +14518,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="3"/>
@@ -14529,7 +14546,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="3"/>
@@ -14557,7 +14574,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="3"/>
@@ -14585,7 +14602,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="3"/>
@@ -14613,7 +14630,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="3"/>
@@ -14641,7 +14658,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="3"/>
@@ -14669,7 +14686,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="3"/>
@@ -14697,7 +14714,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="3"/>
@@ -14725,7 +14742,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="3"/>
@@ -14753,7 +14770,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="3"/>
@@ -14781,7 +14798,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="3"/>
@@ -14809,7 +14826,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="3"/>
@@ -14837,7 +14854,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="3"/>
@@ -14865,7 +14882,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="3"/>
@@ -14893,7 +14910,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="3"/>
@@ -14921,7 +14938,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="3"/>
@@ -14949,7 +14966,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="3"/>
@@ -14977,7 +14994,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="3"/>
@@ -15005,7 +15022,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="3"/>
@@ -15033,7 +15050,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="3"/>
@@ -15061,7 +15078,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="3"/>
@@ -15089,7 +15106,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="3"/>
@@ -15117,7 +15134,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="3"/>
@@ -15145,7 +15162,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="3"/>
@@ -15173,7 +15190,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="3"/>
@@ -15201,7 +15218,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="3"/>
@@ -15229,7 +15246,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="3"/>
@@ -15257,7 +15274,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="3"/>
@@ -15285,7 +15302,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="3"/>
@@ -15313,7 +15330,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="3"/>
@@ -15341,7 +15358,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="3"/>
@@ -15369,7 +15386,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="3"/>
@@ -15397,7 +15414,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="3"/>
@@ -15425,7 +15442,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="3"/>
@@ -15453,7 +15470,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="3"/>
@@ -15481,7 +15498,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="3"/>
@@ -15509,7 +15526,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="3"/>
@@ -15537,7 +15554,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="3"/>
@@ -15565,7 +15582,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="3"/>
@@ -15593,7 +15610,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="3"/>
@@ -15621,7 +15638,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="3"/>
@@ -15649,7 +15666,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="3"/>
@@ -15677,7 +15694,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="3"/>
@@ -15705,7 +15722,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="3"/>
@@ -15733,7 +15750,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="3"/>
@@ -15761,7 +15778,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="3"/>
@@ -15789,7 +15806,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="3"/>
@@ -15817,7 +15834,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="3"/>
@@ -15845,7 +15862,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="3"/>
@@ -15873,7 +15890,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="3"/>
@@ -15901,7 +15918,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="3"/>
@@ -15929,7 +15946,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="3"/>
@@ -15957,7 +15974,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="3"/>
@@ -15985,7 +16002,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="3"/>
@@ -16013,7 +16030,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="3"/>
@@ -16041,7 +16058,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="3"/>
@@ -16069,7 +16086,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="3"/>
@@ -16097,7 +16114,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="3"/>
@@ -16125,7 +16142,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="3"/>
@@ -16153,7 +16170,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="3"/>
@@ -16181,7 +16198,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="3"/>
@@ -16209,7 +16226,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="3"/>
@@ -16237,7 +16254,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="3"/>
@@ -16265,7 +16282,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="3"/>
@@ -16293,7 +16310,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="3"/>
@@ -16321,7 +16338,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="3"/>
@@ -16349,7 +16366,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="3"/>
@@ -16377,7 +16394,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="3"/>
@@ -16405,7 +16422,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="3"/>
@@ -16433,7 +16450,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="3"/>
@@ -16461,7 +16478,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="3"/>
@@ -16489,7 +16506,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="3"/>
@@ -16517,7 +16534,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="3"/>
@@ -16545,7 +16562,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="3"/>
@@ -16573,7 +16590,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="3"/>
@@ -16601,7 +16618,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="3"/>
@@ -16629,7 +16646,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="3"/>
@@ -16657,7 +16674,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="3"/>
@@ -16685,7 +16702,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="3"/>
@@ -16713,7 +16730,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="3"/>
@@ -16741,7 +16758,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="3"/>
@@ -16769,7 +16786,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="3"/>
@@ -16797,7 +16814,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="3"/>
@@ -16825,7 +16842,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="3"/>
@@ -16853,7 +16870,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="3"/>
@@ -16881,7 +16898,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="3"/>
@@ -16909,7 +16926,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="3"/>
@@ -16937,7 +16954,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="3"/>
@@ -16965,7 +16982,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="3"/>
@@ -16993,7 +17010,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="3"/>
@@ -17021,7 +17038,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="3"/>
@@ -17049,7 +17066,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="3"/>
@@ -17077,7 +17094,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="3"/>
@@ -17105,7 +17122,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="3"/>
@@ -17133,7 +17150,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="3"/>
@@ -17161,7 +17178,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="3"/>
@@ -17189,7 +17206,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="3"/>
@@ -17217,7 +17234,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="3"/>
@@ -17245,7 +17262,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="3"/>
@@ -17273,7 +17290,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="3"/>
@@ -17301,7 +17318,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="3"/>
@@ -17329,7 +17346,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="3"/>
@@ -17357,7 +17374,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="3"/>
@@ -17385,7 +17402,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="3"/>
@@ -17413,7 +17430,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="3"/>
@@ -17441,7 +17458,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="3"/>
@@ -17469,7 +17486,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="3"/>
@@ -17497,7 +17514,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="3"/>
@@ -17525,7 +17542,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="3"/>
@@ -17553,7 +17570,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="3"/>
@@ -17581,7 +17598,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="3"/>
@@ -17609,7 +17626,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="3"/>
@@ -17637,7 +17654,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="3"/>
@@ -17665,7 +17682,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="3"/>
@@ -17693,7 +17710,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="3"/>
@@ -17721,7 +17738,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="3"/>
@@ -17749,7 +17766,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="3"/>
@@ -17777,7 +17794,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="3"/>
@@ -17805,7 +17822,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="3"/>
@@ -17833,7 +17850,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="3"/>
@@ -17861,7 +17878,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="3"/>
@@ -17889,7 +17906,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="3"/>
@@ -17917,7 +17934,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="3"/>
@@ -17945,7 +17962,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="3"/>
@@ -17973,7 +17990,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="3"/>
@@ -18001,7 +18018,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="3"/>
@@ -18029,7 +18046,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="3"/>
@@ -18057,7 +18074,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="3"/>
@@ -18085,7 +18102,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="3"/>
@@ -18113,7 +18130,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="3"/>
@@ -18141,7 +18158,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="3"/>
@@ -18169,7 +18186,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="3"/>
@@ -18197,7 +18214,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="3"/>
@@ -18225,7 +18242,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="3"/>
@@ -18253,7 +18270,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="3"/>
@@ -18281,7 +18298,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="3"/>
@@ -18309,7 +18326,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="3"/>
@@ -18337,7 +18354,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="3"/>
@@ -18365,7 +18382,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="3"/>
@@ -18393,7 +18410,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="3"/>
@@ -18421,7 +18438,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="3"/>
@@ -18449,7 +18466,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="3"/>
@@ -18477,7 +18494,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="3"/>
@@ -18505,7 +18522,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="3"/>
@@ -18533,7 +18550,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="3"/>
@@ -18561,7 +18578,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="3"/>
@@ -18589,7 +18606,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="3"/>
@@ -18617,7 +18634,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="3"/>
@@ -18645,7 +18662,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="3"/>
@@ -18673,7 +18690,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="3"/>
@@ -18701,7 +18718,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="3"/>
@@ -18729,7 +18746,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="3"/>
@@ -18757,7 +18774,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="3"/>
@@ -18785,7 +18802,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="3"/>
@@ -18813,7 +18830,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="3"/>
@@ -18841,7 +18858,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="3"/>
@@ -18869,7 +18886,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="3"/>
@@ -18897,7 +18914,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="3"/>
@@ -18925,7 +18942,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="3"/>
@@ -18953,7 +18970,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="3"/>
@@ -18981,7 +18998,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="3"/>
@@ -19009,7 +19026,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="3"/>
@@ -19037,7 +19054,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="3"/>
@@ -19065,7 +19082,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="3"/>
@@ -19093,7 +19110,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="3"/>
@@ -19121,7 +19138,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="3"/>
@@ -19149,7 +19166,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="3"/>
@@ -19177,7 +19194,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="3"/>
@@ -19205,7 +19222,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="3"/>
@@ -19233,7 +19250,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="3"/>
@@ -19261,7 +19278,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="3"/>
@@ -19289,7 +19306,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="3"/>
@@ -19317,7 +19334,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="3"/>
@@ -19345,7 +19362,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="3"/>
@@ -19373,7 +19390,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="3"/>
@@ -19401,7 +19418,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="3"/>
@@ -19429,7 +19446,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="3"/>
@@ -19457,7 +19474,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="3"/>
@@ -19485,7 +19502,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="3"/>
@@ -19513,7 +19530,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="3"/>
@@ -19541,7 +19558,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="3"/>
@@ -19569,7 +19586,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="3"/>
@@ -19597,7 +19614,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="3"/>
@@ -19625,7 +19642,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="3"/>
@@ -19653,7 +19670,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="3"/>
@@ -19681,7 +19698,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="3"/>
@@ -19709,7 +19726,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="3"/>
@@ -19737,7 +19754,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="3"/>
@@ -19765,7 +19782,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="3"/>
@@ -19793,7 +19810,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="3"/>
@@ -19821,7 +19838,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="3"/>
@@ -19849,7 +19866,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="3"/>
@@ -19877,7 +19894,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="3"/>
@@ -19905,7 +19922,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="3"/>
@@ -19933,7 +19950,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="3"/>
@@ -19961,7 +19978,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="3"/>
@@ -19989,7 +20006,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="3"/>
@@ -20017,7 +20034,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="3"/>
@@ -20045,7 +20062,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="3"/>
@@ -20073,7 +20090,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="3"/>
@@ -20101,7 +20118,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="3"/>
@@ -20129,7 +20146,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="3"/>
@@ -20157,7 +20174,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="3"/>
@@ -20185,7 +20202,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="3"/>
@@ -20213,7 +20230,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="3"/>
@@ -20241,7 +20258,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="3"/>
@@ -20269,7 +20286,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="3"/>
@@ -20297,7 +20314,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="3"/>
@@ -20325,7 +20342,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="3"/>
@@ -20353,7 +20370,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="3"/>
@@ -20381,7 +20398,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="3"/>
@@ -20409,7 +20426,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="3"/>
@@ -20437,7 +20454,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="3"/>
@@ -20465,7 +20482,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="3"/>
@@ -20493,7 +20510,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="3"/>
@@ -20521,7 +20538,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="3"/>
@@ -20549,7 +20566,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="3"/>
@@ -20577,7 +20594,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="3"/>
@@ -20605,7 +20622,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="3"/>
@@ -20633,7 +20650,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="3"/>
@@ -20661,7 +20678,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="3"/>
@@ -20689,7 +20706,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="3"/>
@@ -20717,7 +20734,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="3"/>
@@ -20745,7 +20762,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="3"/>
@@ -20773,7 +20790,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="3"/>
@@ -20801,7 +20818,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="3"/>
@@ -20829,7 +20846,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="3"/>
@@ -20857,7 +20874,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="3"/>
@@ -20885,7 +20902,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="3"/>
@@ -20913,7 +20930,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="3"/>
@@ -20941,7 +20958,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="3"/>
@@ -20969,7 +20986,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="3"/>
@@ -20997,7 +21014,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="3"/>
@@ -21025,7 +21042,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="3"/>
@@ -21053,7 +21070,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="3"/>
@@ -21081,7 +21098,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="3"/>
@@ -21109,7 +21126,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="3"/>
@@ -21137,7 +21154,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="3"/>
@@ -21165,7 +21182,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="3"/>
@@ -21193,7 +21210,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="3"/>
@@ -21221,7 +21238,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="3"/>
@@ -21249,7 +21266,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="3"/>
@@ -21277,7 +21294,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="3"/>
@@ -21305,7 +21322,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="3"/>
@@ -21333,7 +21350,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="3"/>
@@ -21361,7 +21378,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="3"/>
@@ -21389,7 +21406,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="3"/>
@@ -21417,7 +21434,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="3"/>
@@ -21445,7 +21462,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="3"/>
@@ -21473,7 +21490,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="3"/>
@@ -21501,7 +21518,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="3"/>
@@ -21529,7 +21546,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="3"/>
@@ -21557,7 +21574,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="3"/>
@@ -21585,7 +21602,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="3"/>
@@ -21613,7 +21630,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="3"/>
@@ -21641,7 +21658,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="3"/>
@@ -21669,7 +21686,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="3"/>
@@ -21697,7 +21714,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="3"/>
@@ -21725,7 +21742,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="3"/>
@@ -21753,7 +21770,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="3"/>
@@ -21781,7 +21798,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="3"/>
@@ -21809,7 +21826,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="3"/>
@@ -21837,7 +21854,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="3"/>
@@ -21865,7 +21882,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="3"/>
@@ -21893,7 +21910,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="3"/>
@@ -21921,7 +21938,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="3"/>
@@ -21949,7 +21966,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="3"/>
@@ -21977,7 +21994,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="3"/>
@@ -22005,7 +22022,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="3"/>
@@ -22033,7 +22050,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="3"/>
@@ -22061,7 +22078,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="3"/>
@@ -22089,7 +22106,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="3"/>
@@ -22117,7 +22134,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="3"/>
@@ -22145,7 +22162,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="3"/>
@@ -22173,7 +22190,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="3"/>
@@ -22201,7 +22218,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="3"/>
@@ -22229,7 +22246,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="3"/>
@@ -22257,7 +22274,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="3"/>
@@ -22285,7 +22302,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="3"/>
@@ -22313,7 +22330,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="3"/>
@@ -22341,7 +22358,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="3"/>
@@ -22369,7 +22386,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="3"/>
@@ -22397,7 +22414,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="3"/>
@@ -22425,7 +22442,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="3"/>
@@ -22453,7 +22470,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="3"/>
@@ -22481,7 +22498,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="3"/>
@@ -22509,7 +22526,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="3"/>
@@ -22537,7 +22554,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="3"/>
@@ -22565,7 +22582,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="3"/>
@@ -22593,7 +22610,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="3"/>
@@ -22621,7 +22638,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="3"/>
@@ -22649,7 +22666,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="3"/>
@@ -22677,7 +22694,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="3"/>
@@ -22705,7 +22722,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="3"/>
@@ -22733,7 +22750,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="3"/>
@@ -22761,7 +22778,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="3"/>
@@ -22789,7 +22806,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="3"/>
@@ -22817,7 +22834,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="3"/>
@@ -22845,7 +22862,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="3"/>
@@ -22873,7 +22890,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="3"/>
@@ -22901,7 +22918,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="3"/>
@@ -22929,7 +22946,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="3"/>
@@ -22957,7 +22974,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="3"/>
@@ -22985,7 +23002,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="3"/>
@@ -23013,7 +23030,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="3"/>
@@ -23041,7 +23058,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="3"/>
@@ -23069,7 +23086,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="3"/>
@@ -23097,7 +23114,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="3"/>
@@ -23125,7 +23142,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="3"/>
@@ -23153,7 +23170,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="3"/>
@@ -23181,7 +23198,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="3"/>
@@ -23209,7 +23226,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="3"/>
@@ -23237,7 +23254,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="3"/>
@@ -23265,7 +23282,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="3"/>
@@ -23293,7 +23310,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="3"/>
@@ -23321,7 +23338,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="3"/>
@@ -23349,7 +23366,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="3"/>
@@ -23377,7 +23394,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="3"/>
@@ -23405,7 +23422,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="3"/>
@@ -23433,7 +23450,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="3"/>
@@ -23461,7 +23478,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="3"/>
@@ -23489,7 +23506,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="3"/>
@@ -23517,7 +23534,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="3"/>
@@ -23545,7 +23562,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="3"/>
@@ -23573,7 +23590,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="3"/>
@@ -23601,7 +23618,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="3"/>
@@ -23629,7 +23646,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="3"/>
@@ -23657,7 +23674,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="3"/>
@@ -23685,7 +23702,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="3"/>
@@ -23713,7 +23730,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="3"/>
@@ -23741,7 +23758,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="3"/>
@@ -23769,7 +23786,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="3"/>
@@ -23797,7 +23814,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="3"/>
@@ -23825,7 +23842,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="3"/>
@@ -23853,7 +23870,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="3"/>
@@ -23881,7 +23898,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="3"/>
@@ -23909,7 +23926,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="3"/>
@@ -23937,7 +23954,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="3"/>
@@ -23965,7 +23982,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="3"/>
@@ -23993,7 +24010,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="3"/>
@@ -24021,7 +24038,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="3"/>
@@ -24049,7 +24066,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="3"/>
@@ -24077,7 +24094,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="3"/>
@@ -24105,7 +24122,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="3"/>
@@ -24133,7 +24150,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="3"/>
@@ -24161,7 +24178,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="3"/>
@@ -24189,7 +24206,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="3"/>
@@ -24217,7 +24234,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="3"/>
@@ -24245,7 +24262,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="3"/>
@@ -24273,7 +24290,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="3"/>
@@ -24301,7 +24318,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="3"/>
@@ -24329,7 +24346,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="3"/>
@@ -24357,7 +24374,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="3"/>
@@ -24385,7 +24402,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="3"/>
@@ -24413,7 +24430,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="3"/>
@@ -24441,7 +24458,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="3"/>
@@ -24469,7 +24486,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="3"/>
@@ -24497,7 +24514,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="3"/>
@@ -24525,7 +24542,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="3"/>
@@ -24553,7 +24570,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="3"/>
@@ -24581,7 +24598,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="3"/>
@@ -24609,7 +24626,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="3"/>
@@ -24637,7 +24654,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="3"/>
@@ -24665,7 +24682,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="3"/>
@@ -24693,7 +24710,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="3"/>
@@ -24721,7 +24738,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="3"/>
@@ -24749,7 +24766,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="3"/>
@@ -24777,7 +24794,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="3"/>
@@ -24805,7 +24822,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="3"/>
@@ -24833,7 +24850,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="3"/>
@@ -24861,7 +24878,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="3"/>
@@ -24889,7 +24906,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="3"/>
@@ -24917,7 +24934,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="3"/>
@@ -24945,7 +24962,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="3"/>
@@ -24973,7 +24990,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="3"/>
@@ -25001,7 +25018,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="3"/>
@@ -25029,7 +25046,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="3"/>
@@ -25057,7 +25074,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="3"/>
@@ -25085,7 +25102,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="3"/>
@@ -25113,7 +25130,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="3"/>
@@ -25141,7 +25158,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="3"/>
@@ -25169,7 +25186,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="3"/>
@@ -25197,7 +25214,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="3"/>
@@ -25225,7 +25242,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="3"/>
@@ -25253,7 +25270,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="3"/>
@@ -25281,7 +25298,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="3"/>
@@ -25309,7 +25326,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="3"/>
@@ -25337,7 +25354,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="3"/>
@@ -25365,7 +25382,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="3"/>
@@ -25393,7 +25410,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="3"/>
@@ -25421,7 +25438,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="3"/>
@@ -25449,7 +25466,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="3"/>
@@ -25477,7 +25494,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="3"/>
@@ -25505,7 +25522,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="3"/>
@@ -25533,7 +25550,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="3"/>
@@ -25561,7 +25578,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="3"/>
@@ -25589,7 +25606,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="3"/>
@@ -25617,7 +25634,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="3"/>
@@ -25645,7 +25662,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="3"/>
@@ -25673,7 +25690,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="3"/>
@@ -25701,7 +25718,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="3"/>
@@ -25729,7 +25746,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="3"/>
@@ -25757,7 +25774,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="3"/>
@@ -25785,7 +25802,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="3"/>
@@ -25813,7 +25830,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="3"/>
@@ -25841,7 +25858,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="3"/>
@@ -25869,7 +25886,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="3"/>
@@ -25897,7 +25914,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="3"/>
@@ -25925,7 +25942,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="3"/>
@@ -25953,7 +25970,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="3"/>
@@ -25981,7 +25998,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="3"/>
@@ -26009,7 +26026,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="3"/>
@@ -26037,7 +26054,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="3"/>
@@ -26065,7 +26082,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="3"/>
@@ -26093,7 +26110,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="3"/>
@@ -26121,7 +26138,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="3"/>
@@ -26149,7 +26166,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="3"/>
@@ -26177,7 +26194,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="3"/>
@@ -26205,7 +26222,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="3"/>
@@ -26233,7 +26250,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="3"/>
@@ -26261,7 +26278,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="3"/>
@@ -26289,7 +26306,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="3"/>
@@ -26317,7 +26334,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="3"/>
@@ -26345,7 +26362,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="3"/>
@@ -26373,7 +26390,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="3"/>
@@ -26401,7 +26418,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="3"/>
@@ -26429,7 +26446,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="3"/>
@@ -26457,7 +26474,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="3"/>
@@ -26485,7 +26502,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="3"/>
@@ -26513,7 +26530,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="3"/>
@@ -26541,7 +26558,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="3"/>
@@ -26569,7 +26586,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="3"/>
@@ -26597,7 +26614,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="3"/>
@@ -26625,7 +26642,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="3"/>
@@ -26653,7 +26670,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="3"/>
@@ -26681,7 +26698,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="3"/>
@@ -26709,7 +26726,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="3"/>
@@ -26737,7 +26754,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="3"/>
@@ -26765,7 +26782,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="3"/>
@@ -26793,7 +26810,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="3"/>
@@ -26821,7 +26838,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="3"/>
@@ -26849,7 +26866,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="3"/>
@@ -26877,7 +26894,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="3"/>
@@ -26905,7 +26922,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="3"/>
@@ -26933,7 +26950,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="3"/>
@@ -26961,7 +26978,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="3"/>
@@ -26989,7 +27006,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="3"/>
@@ -27017,7 +27034,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="3"/>
@@ -27045,7 +27062,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="3"/>
@@ -27073,7 +27090,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="3"/>
@@ -27101,7 +27118,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="3"/>
@@ -27129,7 +27146,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="3"/>
@@ -27157,7 +27174,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="3"/>
@@ -27185,7 +27202,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="3"/>
@@ -27213,7 +27230,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="3"/>
@@ -27241,7 +27258,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="3"/>
@@ -27269,7 +27286,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="3"/>
@@ -27297,7 +27314,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="3"/>
@@ -27325,7 +27342,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="3"/>
@@ -27353,7 +27370,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="3"/>
@@ -27381,7 +27398,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="3"/>
@@ -27409,7 +27426,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="3"/>
@@ -27437,7 +27454,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="3"/>
@@ -27465,7 +27482,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="3"/>
@@ -27493,7 +27510,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="3"/>
@@ -27521,7 +27538,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="3"/>
@@ -27549,7 +27566,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="3"/>
@@ -27577,7 +27594,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="3"/>
@@ -27605,7 +27622,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="3"/>
@@ -27633,7 +27650,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="3"/>
@@ -27661,7 +27678,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="3"/>
@@ -27689,7 +27706,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="3"/>
@@ -27717,7 +27734,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="3"/>
@@ -27745,7 +27762,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="3"/>
@@ -27773,7 +27790,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="3"/>
@@ -27801,7 +27818,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="3"/>
@@ -27829,7 +27846,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="3"/>
@@ -27857,7 +27874,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="3"/>
@@ -27885,7 +27902,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="3"/>
@@ -27913,7 +27930,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="3"/>
@@ -27941,7 +27958,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="3"/>
@@ -27969,7 +27986,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="3"/>
@@ -27997,7 +28014,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="3"/>
@@ -28025,7 +28042,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="3"/>
@@ -28053,7 +28070,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="3"/>
@@ -28081,7 +28098,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="3"/>
@@ -28109,7 +28126,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="3"/>
@@ -28137,7 +28154,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="3"/>
@@ -28165,7 +28182,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="3"/>
@@ -28193,7 +28210,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="3"/>
@@ -28221,7 +28238,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="3"/>
@@ -28249,7 +28266,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="3"/>
@@ -28277,7 +28294,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="3"/>
@@ -28305,7 +28322,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="3"/>
@@ -28333,7 +28350,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="3"/>
@@ -28361,7 +28378,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="3"/>
@@ -28389,7 +28406,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="3"/>
@@ -28417,7 +28434,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="3"/>
@@ -28445,7 +28462,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="3"/>
@@ -28473,7 +28490,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="3"/>
@@ -28501,7 +28518,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="3"/>
@@ -28529,7 +28546,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="3"/>
@@ -28557,7 +28574,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="3"/>
@@ -28585,7 +28602,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="3"/>
@@ -28613,7 +28630,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="3"/>
@@ -28641,7 +28658,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="3"/>
@@ -28669,7 +28686,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="3"/>
@@ -28697,7 +28714,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="3"/>
@@ -28726,17 +28743,15 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D23">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Documents\GitHub\JumpyStreetSGD285\Non-Game-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4573B-FA2D-4CC5-BB6C-5BBF9354C9A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012A1A1-F199-4563-A81D-F7E19419A2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -999,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1068,10 +1068,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1143,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Documents\GitHub\JumpyStreetSGD285\Non-Game-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012A1A1-F199-4563-A81D-F7E19419A2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0E19A8-D8E5-491E-89FE-B61C5063C7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Documents\GitHub\JumpyStreetSGD285\Non-Game-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SPG_WorkSpace\JumpyStreetSGD285\Non-Game-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0E19A8-D8E5-491E-89FE-B61C5063C7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2D47C-48EF-47A8-B098-D5C3768FC901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="840" windowWidth="20385" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>

--- a/Non-Game-Files/ProjectPlan.xlsx
+++ b/Non-Game-Files/ProjectPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SPG_WorkSpace\JumpyStreetSGD285\Non-Game-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Desktop\JumpyStreetSGD285\Non-Game-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2D47C-48EF-47A8-B098-D5C3768FC901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BEF80-AC47-4AF8-9F0A-D93A693650AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="840" windowWidth="20385" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
